--- a/data/documents/us.xlsx
+++ b/data/documents/us.xlsx
@@ -300,27 +300,27 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">DL00037</t>
+          <t xml:space="preserve">PAE00291</t>
         </is>
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">HVAC Territories for sale in North Texas, Franchise Opportunity, REDUCED!</t>
+          <t xml:space="preserve">Niche Business to Business Document Laminating and Print Company with Captive Client Base</t>
         </is>
       </c>
       <c r="C3" s="63">
-        <v>650000</v>
+        <v>530000</v>
       </c>
       <c t="inlineStr" r="D3">
         <is>
-          <t xml:space="preserve">North Texas</t>
+          <t xml:space="preserve">Eastern Pennsylvania</t>
         </is>
       </c>
       <c r="E3" s="65">
         <v>0</v>
       </c>
       <c r="F3" s="63">
-        <v>15000</v>
+        <v>189876</v>
       </c>
       <c t="inlineStr" r="G3">
         <is>
@@ -329,12 +329,12 @@
       </c>
       <c t="inlineStr" r="H3">
         <is>
-          <t xml:space="preserve">Repair and Maintenance</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t xml:space="preserve">Tom Diedrich</t>
+          <t xml:space="preserve">Chris Caldwell</t>
         </is>
       </c>
       <c t="inlineStr" r="M3">
@@ -346,58 +346,58 @@
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">NYC00010</t>
+          <t xml:space="preserve">DL00037</t>
         </is>
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">Home based specialty food Distributor</t>
-        </is>
-      </c>
-      <c r="C4" s="65">
-        <v>0</v>
+          <t xml:space="preserve">HVAC Territories for sale in North Texas, Franchise Opportunity, REDUCED!</t>
+        </is>
+      </c>
+      <c r="C4" s="63">
+        <v>650000</v>
       </c>
       <c t="inlineStr" r="D4">
         <is>
-          <t xml:space="preserve">Putnam County</t>
+          <t xml:space="preserve">North Texas</t>
         </is>
       </c>
       <c r="E4" s="65">
         <v>0</v>
       </c>
-      <c r="F4" s="65">
-        <v>0</v>
+      <c r="F4" s="63">
+        <v>15000</v>
       </c>
       <c t="inlineStr" r="G4">
         <is>
-          <t xml:space="preserve">Wholesale Trade</t>
+          <t xml:space="preserve">Other Services (except public administration)</t>
         </is>
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t xml:space="preserve">Merchant Wholesalers, Durable Goods</t>
+          <t xml:space="preserve">Repair and Maintenance</t>
         </is>
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t xml:space="preserve">Kingsley Allison</t>
+          <t xml:space="preserve">Tom Diedrich</t>
         </is>
       </c>
       <c t="inlineStr" r="M4">
         <is>
-          <t xml:space="preserve">Refer to Broker</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">LA04258</t>
+          <t xml:space="preserve">NYC00010</t>
         </is>
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">Denny's High Volume recent remodel LA County</t>
+          <t xml:space="preserve">Home based specialty food Distributor</t>
         </is>
       </c>
       <c r="C5" s="65">
@@ -405,7 +405,7 @@
       </c>
       <c t="inlineStr" r="D5">
         <is>
-          <t xml:space="preserve">California</t>
+          <t xml:space="preserve">Putnam County</t>
         </is>
       </c>
       <c r="E5" s="65">
@@ -416,12 +416,17 @@
       </c>
       <c t="inlineStr" r="G5">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Wholesale Trade</t>
         </is>
       </c>
       <c t="inlineStr" r="H5">
         <is>
-          <t xml:space="preserve">Food Services and Drinking Places</t>
+          <t xml:space="preserve">Merchant Wholesalers, Durable Goods</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I5">
+        <is>
+          <t xml:space="preserve">Kingsley Allison</t>
         </is>
       </c>
       <c t="inlineStr" r="M5">
@@ -433,82 +438,77 @@
     <row r="6">
       <c t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">NYC00009</t>
+          <t xml:space="preserve">LA04258</t>
         </is>
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">Est. growing &amp; profitable Restaurant equipment Restoration and sale business</t>
-        </is>
-      </c>
-      <c r="C6" s="63">
-        <v>10000000</v>
+          <t xml:space="preserve">Denny's High Volume recent remodel LA County</t>
+        </is>
+      </c>
+      <c r="C6" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="D6">
         <is>
-          <t xml:space="preserve">Bergen</t>
+          <t xml:space="preserve">California</t>
         </is>
       </c>
       <c r="E6" s="65">
         <v>0</v>
       </c>
-      <c r="F6" s="63">
-        <v>500000</v>
+      <c r="F6" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G6">
         <is>
-          <t xml:space="preserve">Wholesale Trade</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="H6">
         <is>
-          <t xml:space="preserve">Merchant Wholesalers, Nondurable Goods</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I6">
-        <is>
-          <t xml:space="preserve">Kingsley Allison</t>
+          <t xml:space="preserve">Food Services and Drinking Places</t>
         </is>
       </c>
       <c t="inlineStr" r="M6">
         <is>
-          <t xml:space="preserve">Inventory $1,000,000</t>
+          <t xml:space="preserve">Refer to Broker</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">NYC00007</t>
+          <t xml:space="preserve">NYC00009</t>
         </is>
       </c>
       <c t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">Profitable Salon, Beauty Supply, Hair, &amp; Much More.</t>
+          <t xml:space="preserve">Est. growing &amp; profitable Restaurant equipment Restoration and sale business</t>
         </is>
       </c>
       <c r="C7" s="63">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
       <c t="inlineStr" r="D7">
         <is>
-          <t xml:space="preserve">Brooklyn</t>
+          <t xml:space="preserve">Bergen</t>
         </is>
       </c>
       <c r="E7" s="65">
         <v>0</v>
       </c>
       <c r="F7" s="63">
-        <v>64896</v>
+        <v>500000</v>
       </c>
       <c t="inlineStr" r="G7">
         <is>
-          <t xml:space="preserve">Retail Trade</t>
+          <t xml:space="preserve">Wholesale Trade</t>
         </is>
       </c>
       <c t="inlineStr" r="H7">
         <is>
-          <t xml:space="preserve">Health and Personal Care Stores</t>
+          <t xml:space="preserve">Merchant Wholesalers, Nondurable Goods</t>
         </is>
       </c>
       <c t="inlineStr" r="I7">
@@ -518,43 +518,43 @@
       </c>
       <c t="inlineStr" r="M7">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Inventory $1,000,000</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">NYC00006</t>
+          <t xml:space="preserve">NYC00007</t>
         </is>
       </c>
       <c t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">Highly successful Pizza with high growth potential</t>
+          <t xml:space="preserve">Profitable Salon, Beauty Supply, Hair, &amp; Much More.</t>
         </is>
       </c>
       <c r="C8" s="63">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c t="inlineStr" r="D8">
         <is>
-          <t xml:space="preserve">Westchester County</t>
+          <t xml:space="preserve">Brooklyn</t>
         </is>
       </c>
       <c r="E8" s="65">
         <v>0</v>
       </c>
       <c r="F8" s="63">
-        <v>100000</v>
+        <v>64896</v>
       </c>
       <c t="inlineStr" r="G8">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Retail Trade</t>
         </is>
       </c>
       <c t="inlineStr" r="H8">
         <is>
-          <t xml:space="preserve">Food Services and Drinking Places</t>
+          <t xml:space="preserve">Health and Personal Care Stores</t>
         </is>
       </c>
       <c t="inlineStr" r="I8">
@@ -571,36 +571,36 @@
     <row r="9">
       <c t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">NYC00004</t>
+          <t xml:space="preserve">NYC00006</t>
         </is>
       </c>
       <c t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">PROFITABLE DRY CLEANER in Brooklyn NY</t>
+          <t xml:space="preserve">Highly successful Pizza with high growth potential</t>
         </is>
       </c>
       <c r="C9" s="63">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c t="inlineStr" r="D9">
         <is>
-          <t xml:space="preserve">Brooklyn</t>
+          <t xml:space="preserve">Westchester County</t>
         </is>
       </c>
       <c r="E9" s="65">
         <v>0</v>
       </c>
       <c r="F9" s="63">
-        <v>92652</v>
+        <v>100000</v>
       </c>
       <c t="inlineStr" r="G9">
         <is>
-          <t xml:space="preserve">Other Services (except public administration)</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="H9">
         <is>
-          <t xml:space="preserve">Drycleaning and Laundry Services</t>
+          <t xml:space="preserve">Food Services and Drinking Places</t>
         </is>
       </c>
       <c t="inlineStr" r="I9">
@@ -617,36 +617,41 @@
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">LA04060</t>
+          <t xml:space="preserve">NYC00004</t>
         </is>
       </c>
       <c t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">Top 50 National Re modeler/Cabinet Manufacture</t>
+          <t xml:space="preserve">PROFITABLE DRY CLEANER in Brooklyn NY</t>
         </is>
       </c>
       <c r="C10" s="63">
-        <v>4850000</v>
+        <v>90000</v>
       </c>
       <c t="inlineStr" r="D10">
         <is>
-          <t xml:space="preserve">Western States</t>
+          <t xml:space="preserve">Brooklyn</t>
         </is>
       </c>
       <c r="E10" s="65">
         <v>0</v>
       </c>
-      <c r="F10" s="65">
-        <v>0</v>
+      <c r="F10" s="63">
+        <v>92652</v>
       </c>
       <c t="inlineStr" r="G10">
         <is>
-          <t xml:space="preserve">Construction</t>
+          <t xml:space="preserve">Other Services (except public administration)</t>
         </is>
       </c>
       <c t="inlineStr" r="H10">
         <is>
-          <t xml:space="preserve">Addition, alteration and renovation, single-family housing, general contractors</t>
+          <t xml:space="preserve">Drycleaning and Laundry Services</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I10">
+        <is>
+          <t xml:space="preserve">Kingsley Allison</t>
         </is>
       </c>
       <c t="inlineStr" r="M10">
@@ -658,41 +663,36 @@
     <row r="11">
       <c t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">DL00003</t>
+          <t xml:space="preserve">LA04060</t>
         </is>
       </c>
       <c t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">National Service Company for Sale</t>
+          <t xml:space="preserve">Top 50 National Re modeler/Cabinet Manufacture</t>
         </is>
       </c>
       <c r="C11" s="63">
-        <v>4250000</v>
+        <v>4850000</v>
       </c>
       <c t="inlineStr" r="D11">
         <is>
-          <t xml:space="preserve">Central Texas</t>
+          <t xml:space="preserve">Western States</t>
         </is>
       </c>
       <c r="E11" s="65">
         <v>0</v>
       </c>
-      <c r="F11" s="63">
-        <v>952000</v>
+      <c r="F11" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G11">
         <is>
-          <t xml:space="preserve">Other Services (except public administration)</t>
+          <t xml:space="preserve">Construction</t>
         </is>
       </c>
       <c t="inlineStr" r="H11">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I11">
-        <is>
-          <t xml:space="preserve">Tom Diedrich</t>
+          <t xml:space="preserve">Addition, alteration and renovation, single-family housing, general contractors</t>
         </is>
       </c>
       <c t="inlineStr" r="M11">
@@ -704,31 +704,31 @@
     <row r="12">
       <c t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">DL0001</t>
+          <t xml:space="preserve">DL00003</t>
         </is>
       </c>
       <c t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">Texas Billboard Company</t>
+          <t xml:space="preserve">National Service Company for Sale</t>
         </is>
       </c>
       <c r="C12" s="63">
-        <v>675000</v>
+        <v>4250000</v>
       </c>
       <c t="inlineStr" r="D12">
         <is>
-          <t xml:space="preserve">South Texas</t>
+          <t xml:space="preserve">Central Texas</t>
         </is>
       </c>
       <c r="E12" s="65">
         <v>0</v>
       </c>
       <c r="F12" s="63">
-        <v>100000</v>
+        <v>952000</v>
       </c>
       <c t="inlineStr" r="G12">
         <is>
-          <t xml:space="preserve">Real Estate and Rental &amp; Leasing</t>
+          <t xml:space="preserve">Other Services (except public administration)</t>
         </is>
       </c>
       <c t="inlineStr" r="H12">
@@ -2922,36 +2922,36 @@
     <row r="60">
       <c t="inlineStr" r="A60">
         <is>
-          <t xml:space="preserve">PAE00271</t>
+          <t xml:space="preserve">PAE00260</t>
         </is>
       </c>
       <c t="inlineStr" r="B60">
         <is>
-          <t xml:space="preserve">Respected Industrial Contractor (Metal Fabrication, Mechanical and Electrical)</t>
-        </is>
-      </c>
-      <c r="C60" s="65">
-        <v>0</v>
+          <t xml:space="preserve">Profitable Display &amp; Exhibit Company with Recurring Revenue from Lasting Relationships</t>
+        </is>
+      </c>
+      <c r="C60" s="63">
+        <v>875000</v>
       </c>
       <c t="inlineStr" r="D60">
         <is>
-          <t xml:space="preserve">East Coast States</t>
+          <t xml:space="preserve">Pennsylvania</t>
         </is>
       </c>
       <c r="E60" s="65">
         <v>0</v>
       </c>
-      <c r="F60" s="65">
-        <v>0</v>
+      <c r="F60" s="63">
+        <v>376878</v>
       </c>
       <c t="inlineStr" r="G60">
         <is>
-          <t xml:space="preserve">Manufacturing</t>
+          <t xml:space="preserve">Other Services (except public administration)</t>
         </is>
       </c>
       <c t="inlineStr" r="H60">
         <is>
-          <t xml:space="preserve">Fabricated Metal Product Manufacturing</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I60">
@@ -2961,34 +2961,34 @@
       </c>
       <c t="inlineStr" r="M60">
         <is>
-          <t xml:space="preserve">Refer to Broker</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c t="inlineStr" r="A61">
         <is>
-          <t xml:space="preserve">PAE00260</t>
+          <t xml:space="preserve">PAE00255</t>
         </is>
       </c>
       <c t="inlineStr" r="B61">
         <is>
-          <t xml:space="preserve">Profitable Display &amp; Exhibit Company with Recurring Revenue from Lasting Relationships</t>
+          <t xml:space="preserve">49 Years Offering Security and Locksmith Services for Commercial, Automotive and Residential Needs</t>
         </is>
       </c>
       <c r="C61" s="63">
-        <v>875000</v>
+        <v>450000</v>
       </c>
       <c t="inlineStr" r="D61">
         <is>
-          <t xml:space="preserve">Pennsylvania</t>
+          <t xml:space="preserve">Eastern Pennsylvania</t>
         </is>
       </c>
       <c r="E61" s="65">
         <v>0</v>
       </c>
       <c r="F61" s="63">
-        <v>376878</v>
+        <v>159894</v>
       </c>
       <c t="inlineStr" r="G61">
         <is>
@@ -3002,43 +3002,43 @@
       </c>
       <c t="inlineStr" r="I61">
         <is>
-          <t xml:space="preserve">Joseph Guarino</t>
+          <t xml:space="preserve">James Walter</t>
         </is>
       </c>
       <c t="inlineStr" r="M61">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">RE: $430,000</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c t="inlineStr" r="A62">
         <is>
-          <t xml:space="preserve">PAE00255</t>
+          <t xml:space="preserve">NYC00069</t>
         </is>
       </c>
       <c t="inlineStr" r="B62">
         <is>
-          <t xml:space="preserve">49 Years Offering Security and Locksmith Services for Commercial, Automotive and Residential Needs</t>
+          <t xml:space="preserve">Great opportunity to own your own store</t>
         </is>
       </c>
       <c r="C62" s="63">
-        <v>450000</v>
+        <v>150000</v>
       </c>
       <c t="inlineStr" r="D62">
         <is>
-          <t xml:space="preserve">Eastern Pennsylvania</t>
+          <t xml:space="preserve">New York</t>
         </is>
       </c>
       <c r="E62" s="65">
         <v>0</v>
       </c>
       <c r="F62" s="63">
-        <v>159894</v>
+        <v>70000</v>
       </c>
       <c t="inlineStr" r="G62">
         <is>
-          <t xml:space="preserve">Other Services (except public administration)</t>
+          <t xml:space="preserve">Administrative &amp; Support &amp; Waste Management &amp; Remediation Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H62">
@@ -3048,53 +3048,53 @@
       </c>
       <c t="inlineStr" r="I62">
         <is>
-          <t xml:space="preserve">James Walter</t>
+          <t xml:space="preserve">Kingsley Allison</t>
         </is>
       </c>
       <c t="inlineStr" r="M62">
         <is>
-          <t xml:space="preserve">RE: $430,000</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c t="inlineStr" r="A63">
         <is>
-          <t xml:space="preserve">NYC00069</t>
+          <t xml:space="preserve">SV00098</t>
         </is>
       </c>
       <c t="inlineStr" r="B63">
         <is>
-          <t xml:space="preserve">Great opportunity to own your own store</t>
+          <t xml:space="preserve">Profitable Window Distribution and Installation Business</t>
         </is>
       </c>
       <c r="C63" s="63">
-        <v>150000</v>
+        <v>390000</v>
       </c>
       <c t="inlineStr" r="D63">
         <is>
-          <t xml:space="preserve">New York</t>
+          <t xml:space="preserve">Greater San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E63" s="65">
         <v>0</v>
       </c>
       <c r="F63" s="63">
-        <v>70000</v>
+        <v>162000</v>
       </c>
       <c t="inlineStr" r="G63">
         <is>
-          <t xml:space="preserve">Administrative &amp; Support &amp; Waste Management &amp; Remediation Services</t>
+          <t xml:space="preserve">Wholesale Trade</t>
         </is>
       </c>
       <c t="inlineStr" r="H63">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Merchant Wholesalers, Durable Goods</t>
         </is>
       </c>
       <c t="inlineStr" r="I63">
         <is>
-          <t xml:space="preserve">Kingsley Allison</t>
+          <t xml:space="preserve">Antoinette Norris</t>
         </is>
       </c>
       <c t="inlineStr" r="M63">
@@ -3106,16 +3106,16 @@
     <row r="64">
       <c t="inlineStr" r="A64">
         <is>
-          <t xml:space="preserve">SV00098</t>
+          <t xml:space="preserve">SV00097</t>
         </is>
       </c>
       <c t="inlineStr" r="B64">
         <is>
-          <t xml:space="preserve">Profitable Window Distribution and Installation Business</t>
+          <t xml:space="preserve">Established Non Emergency Medical Transportation, Poised for Growth</t>
         </is>
       </c>
       <c r="C64" s="63">
-        <v>390000</v>
+        <v>560000</v>
       </c>
       <c t="inlineStr" r="D64">
         <is>
@@ -3125,17 +3125,17 @@
       <c r="E64" s="65">
         <v>0</v>
       </c>
-      <c r="F64" s="63">
-        <v>162000</v>
+      <c r="F64" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G64">
         <is>
-          <t xml:space="preserve">Wholesale Trade</t>
+          <t xml:space="preserve">Transportation &amp; Warehousing</t>
         </is>
       </c>
       <c t="inlineStr" r="H64">
         <is>
-          <t xml:space="preserve">Merchant Wholesalers, Durable Goods</t>
+          <t xml:space="preserve">Truck Transportation</t>
         </is>
       </c>
       <c t="inlineStr" r="I64">
@@ -3152,16 +3152,16 @@
     <row r="65">
       <c t="inlineStr" r="A65">
         <is>
-          <t xml:space="preserve">SV00097</t>
+          <t xml:space="preserve">SV00095</t>
         </is>
       </c>
       <c t="inlineStr" r="B65">
         <is>
-          <t xml:space="preserve">Established Non Emergency Medical Transportation, Poised for Growth</t>
+          <t xml:space="preserve">Profitable Party Rental Business, 30+ years of history</t>
         </is>
       </c>
       <c r="C65" s="63">
-        <v>560000</v>
+        <v>750000</v>
       </c>
       <c t="inlineStr" r="D65">
         <is>
@@ -3171,17 +3171,17 @@
       <c r="E65" s="65">
         <v>0</v>
       </c>
-      <c r="F65" s="65">
-        <v>0</v>
+      <c r="F65" s="63">
+        <v>208318</v>
       </c>
       <c t="inlineStr" r="G65">
         <is>
-          <t xml:space="preserve">Transportation &amp; Warehousing</t>
+          <t xml:space="preserve">Other Services (except public administration)</t>
         </is>
       </c>
       <c t="inlineStr" r="H65">
         <is>
-          <t xml:space="preserve">Truck Transportation</t>
+          <t xml:space="preserve">Other Personal Services</t>
         </is>
       </c>
       <c t="inlineStr" r="I65">
@@ -3198,16 +3198,16 @@
     <row r="66">
       <c t="inlineStr" r="A66">
         <is>
-          <t xml:space="preserve">SV00095</t>
+          <t xml:space="preserve">SV00094</t>
         </is>
       </c>
       <c t="inlineStr" r="B66">
         <is>
-          <t xml:space="preserve">Profitable Party Rental Business, 30+ years of history</t>
+          <t xml:space="preserve">Growing Sports Franchise Retailer, Loyal Customers</t>
         </is>
       </c>
       <c r="C66" s="63">
-        <v>750000</v>
+        <v>570000</v>
       </c>
       <c t="inlineStr" r="D66">
         <is>
@@ -3218,42 +3218,42 @@
         <v>0</v>
       </c>
       <c r="F66" s="63">
-        <v>208318</v>
+        <v>459721</v>
       </c>
       <c t="inlineStr" r="G66">
         <is>
-          <t xml:space="preserve">Other Services (except public administration)</t>
+          <t xml:space="preserve">Franchises</t>
         </is>
       </c>
       <c t="inlineStr" r="H66">
         <is>
-          <t xml:space="preserve">Other Personal Services</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I66">
         <is>
-          <t xml:space="preserve">Antoinette Norris</t>
+          <t xml:space="preserve">Raj Sathyaseelan</t>
         </is>
       </c>
       <c t="inlineStr" r="M66">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Includes $150K Inventory</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c t="inlineStr" r="A67">
         <is>
-          <t xml:space="preserve">SV00094</t>
+          <t xml:space="preserve">SV00093</t>
         </is>
       </c>
       <c t="inlineStr" r="B67">
         <is>
-          <t xml:space="preserve">Growing Sports Franchise Retailer, Loyal Customers</t>
+          <t xml:space="preserve">Dental Practice and Orthodontics, Semi Absentee Run</t>
         </is>
       </c>
       <c r="C67" s="63">
-        <v>570000</v>
+        <v>550000</v>
       </c>
       <c t="inlineStr" r="D67">
         <is>
@@ -3264,11 +3264,11 @@
         <v>0</v>
       </c>
       <c r="F67" s="63">
-        <v>459721</v>
+        <v>272448</v>
       </c>
       <c t="inlineStr" r="G67">
         <is>
-          <t xml:space="preserve">Franchises</t>
+          <t xml:space="preserve">Health Care &amp; Social Assistance</t>
         </is>
       </c>
       <c t="inlineStr" r="H67">
@@ -3278,43 +3278,43 @@
       </c>
       <c t="inlineStr" r="I67">
         <is>
-          <t xml:space="preserve">Raj Sathyaseelan</t>
+          <t xml:space="preserve">Antoinette Norris</t>
         </is>
       </c>
       <c t="inlineStr" r="M67">
         <is>
-          <t xml:space="preserve">Includes $150K Inventory</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c t="inlineStr" r="A68">
         <is>
-          <t xml:space="preserve">SV00093</t>
+          <t xml:space="preserve">SV00092</t>
         </is>
       </c>
       <c t="inlineStr" r="B68">
         <is>
-          <t xml:space="preserve">Dental Practice and Orthodontics, Semi Absentee Run</t>
+          <t xml:space="preserve">Newly Renovated Hotel near Corporate Headquarters</t>
         </is>
       </c>
       <c r="C68" s="63">
-        <v>550000</v>
+        <v>4000000</v>
       </c>
       <c t="inlineStr" r="D68">
         <is>
-          <t xml:space="preserve">Greater San Francisco Bay Area</t>
+          <t xml:space="preserve">Other States</t>
         </is>
       </c>
       <c r="E68" s="65">
         <v>0</v>
       </c>
-      <c r="F68" s="63">
-        <v>272448</v>
+      <c r="F68" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G68">
         <is>
-          <t xml:space="preserve">Health Care &amp; Social Assistance</t>
+          <t xml:space="preserve">Real Estate and Rental &amp; Leasing</t>
         </is>
       </c>
       <c t="inlineStr" r="H68">
@@ -3324,7 +3324,7 @@
       </c>
       <c t="inlineStr" r="I68">
         <is>
-          <t xml:space="preserve">Antoinette Norris</t>
+          <t xml:space="preserve">Diane Ho</t>
         </is>
       </c>
       <c t="inlineStr" r="M68">
@@ -3336,20 +3336,20 @@
     <row r="69">
       <c t="inlineStr" r="A69">
         <is>
-          <t xml:space="preserve">SV00092</t>
+          <t xml:space="preserve">SV00091</t>
         </is>
       </c>
       <c t="inlineStr" r="B69">
         <is>
-          <t xml:space="preserve">Newly Renovated Hotel near Corporate Headquarters</t>
+          <t xml:space="preserve">Threading, Hair Cut and Nail Salon in Busy Shopping Center</t>
         </is>
       </c>
       <c r="C69" s="63">
-        <v>4000000</v>
+        <v>120000</v>
       </c>
       <c t="inlineStr" r="D69">
         <is>
-          <t xml:space="preserve">Other States</t>
+          <t xml:space="preserve">Greater San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E69" s="65">
@@ -3360,7 +3360,7 @@
       </c>
       <c t="inlineStr" r="G69">
         <is>
-          <t xml:space="preserve">Real Estate and Rental &amp; Leasing</t>
+          <t xml:space="preserve">Retail Trade</t>
         </is>
       </c>
       <c t="inlineStr" r="H69">
@@ -3382,41 +3382,41 @@
     <row r="70">
       <c t="inlineStr" r="A70">
         <is>
-          <t xml:space="preserve">SV00091</t>
+          <t xml:space="preserve">NYC00068</t>
         </is>
       </c>
       <c t="inlineStr" r="B70">
         <is>
-          <t xml:space="preserve">Threading, Hair Cut and Nail Salon in Busy Shopping Center</t>
+          <t xml:space="preserve">Established Commercial cleaning Businessfor sale.  great for expansion</t>
         </is>
       </c>
       <c r="C70" s="63">
-        <v>120000</v>
+        <v>599000</v>
       </c>
       <c t="inlineStr" r="D70">
         <is>
-          <t xml:space="preserve">Greater San Francisco Bay Area</t>
+          <t xml:space="preserve">Connecticut</t>
         </is>
       </c>
       <c r="E70" s="65">
         <v>0</v>
       </c>
-      <c r="F70" s="65">
-        <v>0</v>
+      <c r="F70" s="63">
+        <v>220000</v>
       </c>
       <c t="inlineStr" r="G70">
         <is>
-          <t xml:space="preserve">Retail Trade</t>
+          <t xml:space="preserve">Administrative &amp; Support &amp; Waste Management &amp; Remediation Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H70">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Administrative and Support Services</t>
         </is>
       </c>
       <c t="inlineStr" r="I70">
         <is>
-          <t xml:space="preserve">Diane Ho</t>
+          <t xml:space="preserve">Kingsley Allison</t>
         </is>
       </c>
       <c t="inlineStr" r="M70">
@@ -3428,119 +3428,119 @@
     <row r="71">
       <c t="inlineStr" r="A71">
         <is>
-          <t xml:space="preserve">NYC00068</t>
+          <t xml:space="preserve">SV00090</t>
         </is>
       </c>
       <c t="inlineStr" r="B71">
         <is>
-          <t xml:space="preserve">Established Commercial cleaning Businessfor sale.  great for expansion</t>
-        </is>
-      </c>
-      <c r="C71" s="63">
-        <v>599000</v>
+          <t xml:space="preserve">Innovative Mobile Easy and Rich Engagement</t>
+        </is>
+      </c>
+      <c r="C71" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="D71">
         <is>
-          <t xml:space="preserve">Connecticut</t>
+          <t xml:space="preserve">Greater San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E71" s="65">
         <v>0</v>
       </c>
-      <c r="F71" s="63">
-        <v>220000</v>
+      <c r="F71" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G71">
         <is>
-          <t xml:space="preserve">Administrative &amp; Support &amp; Waste Management &amp; Remediation Services</t>
+          <t xml:space="preserve">Information</t>
         </is>
       </c>
       <c t="inlineStr" r="H71">
         <is>
-          <t xml:space="preserve">Administrative and Support Services</t>
+          <t xml:space="preserve">Internet</t>
         </is>
       </c>
       <c t="inlineStr" r="I71">
         <is>
-          <t xml:space="preserve">Kingsley Allison</t>
+          <t xml:space="preserve">David Jacobs</t>
         </is>
       </c>
       <c t="inlineStr" r="M71">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Refer to Broker</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c t="inlineStr" r="A72">
         <is>
-          <t xml:space="preserve">SV00090</t>
+          <t xml:space="preserve">PAE00218</t>
         </is>
       </c>
       <c t="inlineStr" r="B72">
         <is>
-          <t xml:space="preserve">Innovative Mobile Easy and Rich Engagement</t>
-        </is>
-      </c>
-      <c r="C72" s="65">
-        <v>0</v>
+          <t xml:space="preserve">Very Profitable Local Deli and Convenience Store with a 40+ Year History</t>
+        </is>
+      </c>
+      <c r="C72" s="63">
+        <v>189900</v>
       </c>
       <c t="inlineStr" r="D72">
         <is>
-          <t xml:space="preserve">Greater San Francisco Bay Area</t>
+          <t xml:space="preserve">Chester County</t>
         </is>
       </c>
       <c r="E72" s="65">
         <v>0</v>
       </c>
-      <c r="F72" s="65">
-        <v>0</v>
+      <c r="F72" s="63">
+        <v>117879</v>
       </c>
       <c t="inlineStr" r="G72">
         <is>
-          <t xml:space="preserve">Information</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="H72">
         <is>
-          <t xml:space="preserve">Internet</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I72">
         <is>
-          <t xml:space="preserve">David Jacobs</t>
+          <t xml:space="preserve">Jeffrey Farabaugh</t>
         </is>
       </c>
       <c t="inlineStr" r="M72">
         <is>
-          <t xml:space="preserve">Refer to Broker</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c t="inlineStr" r="A73">
         <is>
-          <t xml:space="preserve">PAE00218</t>
+          <t xml:space="preserve">SV00088</t>
         </is>
       </c>
       <c t="inlineStr" r="B73">
         <is>
-          <t xml:space="preserve">Very Profitable Local Deli and Convenience Store with a 40+ Year History</t>
+          <t xml:space="preserve">Authentic Italian Cuisine with Bar, 30+ years of History</t>
         </is>
       </c>
       <c r="C73" s="63">
-        <v>189900</v>
+        <v>250000</v>
       </c>
       <c t="inlineStr" r="D73">
         <is>
-          <t xml:space="preserve">Chester County</t>
+          <t xml:space="preserve">Greater San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E73" s="65">
         <v>0</v>
       </c>
-      <c r="F73" s="63">
-        <v>117879</v>
+      <c r="F73" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G73">
         <is>
@@ -3554,7 +3554,7 @@
       </c>
       <c t="inlineStr" r="I73">
         <is>
-          <t xml:space="preserve">Jeffrey Farabaugh</t>
+          <t xml:space="preserve">Diane Ho</t>
         </is>
       </c>
       <c t="inlineStr" r="M73">
@@ -3566,31 +3566,31 @@
     <row r="74">
       <c t="inlineStr" r="A74">
         <is>
-          <t xml:space="preserve">SV00088</t>
+          <t xml:space="preserve">NYC00067</t>
         </is>
       </c>
       <c t="inlineStr" r="B74">
         <is>
-          <t xml:space="preserve">Authentic Italian Cuisine with Bar, 30+ years of History</t>
+          <t xml:space="preserve">Established Profitable Limo Company for Sale in New York City</t>
         </is>
       </c>
       <c r="C74" s="63">
-        <v>250000</v>
+        <v>225000</v>
       </c>
       <c t="inlineStr" r="D74">
         <is>
-          <t xml:space="preserve">Greater San Francisco Bay Area</t>
+          <t xml:space="preserve">New York</t>
         </is>
       </c>
       <c r="E74" s="65">
         <v>0</v>
       </c>
-      <c r="F74" s="65">
-        <v>0</v>
+      <c r="F74" s="63">
+        <v>216000</v>
       </c>
       <c t="inlineStr" r="G74">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Transportation &amp; Warehousing</t>
         </is>
       </c>
       <c t="inlineStr" r="H74">
@@ -3600,7 +3600,7 @@
       </c>
       <c t="inlineStr" r="I74">
         <is>
-          <t xml:space="preserve">Diane Ho</t>
+          <t xml:space="preserve">Kingsley Allison</t>
         </is>
       </c>
       <c t="inlineStr" r="M74">
@@ -3612,41 +3612,41 @@
     <row r="75">
       <c t="inlineStr" r="A75">
         <is>
-          <t xml:space="preserve">NYC00067</t>
+          <t xml:space="preserve">SV00087</t>
         </is>
       </c>
       <c t="inlineStr" r="B75">
         <is>
-          <t xml:space="preserve">Established Profitable Limo Company for Sale in New York City</t>
+          <t xml:space="preserve">Laundromat with Corporate Accounts and Trained Employees</t>
         </is>
       </c>
       <c r="C75" s="63">
-        <v>225000</v>
+        <v>516000</v>
       </c>
       <c t="inlineStr" r="D75">
         <is>
-          <t xml:space="preserve">New York</t>
+          <t xml:space="preserve">Greater San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E75" s="65">
         <v>0</v>
       </c>
       <c r="F75" s="63">
-        <v>216000</v>
+        <v>134879</v>
       </c>
       <c t="inlineStr" r="G75">
         <is>
-          <t xml:space="preserve">Transportation &amp; Warehousing</t>
+          <t xml:space="preserve">Retail Trade</t>
         </is>
       </c>
       <c t="inlineStr" r="H75">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Miscellaneous Store Retailers</t>
         </is>
       </c>
       <c t="inlineStr" r="I75">
         <is>
-          <t xml:space="preserve">Kingsley Allison</t>
+          <t xml:space="preserve">Antoinette Norris</t>
         </is>
       </c>
       <c t="inlineStr" r="M75">
@@ -3658,16 +3658,16 @@
     <row r="76">
       <c t="inlineStr" r="A76">
         <is>
-          <t xml:space="preserve">SV00087</t>
+          <t xml:space="preserve">SV00086</t>
         </is>
       </c>
       <c t="inlineStr" r="B76">
         <is>
-          <t xml:space="preserve">Laundromat with Corporate Accounts and Trained Employees</t>
+          <t xml:space="preserve">Ice Cream Franchise, Absentee Run, Low Rent</t>
         </is>
       </c>
       <c r="C76" s="63">
-        <v>516000</v>
+        <v>250000</v>
       </c>
       <c t="inlineStr" r="D76">
         <is>
@@ -3678,16 +3678,16 @@
         <v>0</v>
       </c>
       <c r="F76" s="63">
-        <v>134879</v>
+        <v>85000</v>
       </c>
       <c t="inlineStr" r="G76">
         <is>
-          <t xml:space="preserve">Retail Trade</t>
+          <t xml:space="preserve">Franchises</t>
         </is>
       </c>
       <c t="inlineStr" r="H76">
         <is>
-          <t xml:space="preserve">Miscellaneous Store Retailers</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I76">
@@ -3704,16 +3704,16 @@
     <row r="77">
       <c t="inlineStr" r="A77">
         <is>
-          <t xml:space="preserve">SV00086</t>
+          <t xml:space="preserve">SV00085</t>
         </is>
       </c>
       <c t="inlineStr" r="B77">
         <is>
-          <t xml:space="preserve">Ice Cream Franchise, Absentee Run, Low Rent</t>
+          <t xml:space="preserve">FEDEX Routes with Newer Trucks</t>
         </is>
       </c>
       <c r="C77" s="63">
-        <v>250000</v>
+        <v>1100000</v>
       </c>
       <c t="inlineStr" r="D77">
         <is>
@@ -3724,42 +3724,47 @@
         <v>0</v>
       </c>
       <c r="F77" s="63">
-        <v>85000</v>
+        <v>350000</v>
       </c>
       <c t="inlineStr" r="G77">
         <is>
-          <t xml:space="preserve">Franchises</t>
+          <t xml:space="preserve">Transportation &amp; Warehousing</t>
         </is>
       </c>
       <c t="inlineStr" r="H77">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Truck Transportation</t>
         </is>
       </c>
       <c t="inlineStr" r="I77">
         <is>
-          <t xml:space="preserve">Antoinette Norris</t>
+          <t xml:space="preserve">Diane Ho</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J77">
+        <is>
+          <t xml:space="preserve">Raj Sathyaseelan</t>
         </is>
       </c>
       <c t="inlineStr" r="M77">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">includes all assets</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c t="inlineStr" r="A78">
         <is>
-          <t xml:space="preserve">SV00085</t>
+          <t xml:space="preserve">SV00084</t>
         </is>
       </c>
       <c t="inlineStr" r="B78">
         <is>
-          <t xml:space="preserve">FEDEX Routes with Newer Trucks</t>
+          <t xml:space="preserve">Promotional Branding Company, Corporate Clients</t>
         </is>
       </c>
       <c r="C78" s="63">
-        <v>1100000</v>
+        <v>250000</v>
       </c>
       <c t="inlineStr" r="D78">
         <is>
@@ -3770,72 +3775,67 @@
         <v>0</v>
       </c>
       <c r="F78" s="63">
-        <v>350000</v>
+        <v>138412</v>
       </c>
       <c t="inlineStr" r="G78">
         <is>
-          <t xml:space="preserve">Transportation &amp; Warehousing</t>
+          <t xml:space="preserve">Wholesale Trade</t>
         </is>
       </c>
       <c t="inlineStr" r="H78">
         <is>
-          <t xml:space="preserve">Truck Transportation</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I78">
         <is>
-          <t xml:space="preserve">Diane Ho</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J78">
-        <is>
           <t xml:space="preserve">Raj Sathyaseelan</t>
         </is>
       </c>
       <c t="inlineStr" r="M78">
         <is>
-          <t xml:space="preserve">includes all assets</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c t="inlineStr" r="A79">
         <is>
-          <t xml:space="preserve">SV00084</t>
+          <t xml:space="preserve">NYC00066</t>
         </is>
       </c>
       <c t="inlineStr" r="B79">
         <is>
-          <t xml:space="preserve">Promotional Branding Company, Corporate Clients</t>
+          <t xml:space="preserve">ballroom, Latin &amp; salsa to kids &amp; adults</t>
         </is>
       </c>
       <c r="C79" s="63">
-        <v>250000</v>
+        <v>75000</v>
       </c>
       <c t="inlineStr" r="D79">
         <is>
-          <t xml:space="preserve">Greater San Francisco Bay Area</t>
+          <t xml:space="preserve">New York</t>
         </is>
       </c>
       <c r="E79" s="65">
         <v>0</v>
       </c>
       <c r="F79" s="63">
-        <v>138412</v>
+        <v>50000</v>
       </c>
       <c t="inlineStr" r="G79">
         <is>
-          <t xml:space="preserve">Wholesale Trade</t>
+          <t xml:space="preserve">Educational Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H79">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Educational Services (Level 3)</t>
         </is>
       </c>
       <c t="inlineStr" r="I79">
         <is>
-          <t xml:space="preserve">Raj Sathyaseelan</t>
+          <t xml:space="preserve">Kingsley Allison</t>
         </is>
       </c>
       <c t="inlineStr" r="M79">
@@ -3847,12 +3847,12 @@
     <row r="80">
       <c t="inlineStr" r="A80">
         <is>
-          <t xml:space="preserve">NYC00066</t>
+          <t xml:space="preserve">SV00083</t>
         </is>
       </c>
       <c t="inlineStr" r="B80">
         <is>
-          <t xml:space="preserve">ballroom, Latin &amp; salsa to kids &amp; adults</t>
+          <t xml:space="preserve">New Boba/Bubble Tea Concept in Downtown Location</t>
         </is>
       </c>
       <c r="C80" s="63">
@@ -3860,28 +3860,28 @@
       </c>
       <c t="inlineStr" r="D80">
         <is>
-          <t xml:space="preserve">New York</t>
+          <t xml:space="preserve">Greater San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E80" s="65">
         <v>0</v>
       </c>
       <c r="F80" s="63">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c t="inlineStr" r="G80">
         <is>
-          <t xml:space="preserve">Educational Services</t>
+          <t xml:space="preserve">Franchises</t>
         </is>
       </c>
       <c t="inlineStr" r="H80">
         <is>
-          <t xml:space="preserve">Educational Services (Level 3)</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I80">
         <is>
-          <t xml:space="preserve">Kingsley Allison</t>
+          <t xml:space="preserve">Antoinette Norris</t>
         </is>
       </c>
       <c t="inlineStr" r="M80">
@@ -3893,41 +3893,41 @@
     <row r="81">
       <c t="inlineStr" r="A81">
         <is>
-          <t xml:space="preserve">SV00083</t>
+          <t xml:space="preserve">DL00082</t>
         </is>
       </c>
       <c t="inlineStr" r="B81">
         <is>
-          <t xml:space="preserve">New Boba/Bubble Tea Concept in Downtown Location</t>
+          <t xml:space="preserve">New Pedal Bar Tour and Party Business for sale in Dallas</t>
         </is>
       </c>
       <c r="C81" s="63">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c t="inlineStr" r="D81">
         <is>
-          <t xml:space="preserve">Greater San Francisco Bay Area</t>
+          <t xml:space="preserve">Texas</t>
         </is>
       </c>
       <c r="E81" s="65">
         <v>0</v>
       </c>
-      <c r="F81" s="63">
-        <v>60000</v>
+      <c r="F81" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G81">
         <is>
-          <t xml:space="preserve">Franchises</t>
+          <t xml:space="preserve">Arts, Entertainment &amp; Recreation</t>
         </is>
       </c>
       <c t="inlineStr" r="H81">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Amusement, Gambling, and Recreation Industries</t>
         </is>
       </c>
       <c t="inlineStr" r="I81">
         <is>
-          <t xml:space="preserve">Antoinette Norris</t>
+          <t xml:space="preserve">Randy Jones</t>
         </is>
       </c>
       <c t="inlineStr" r="M81">
@@ -3939,58 +3939,58 @@
     <row r="82">
       <c t="inlineStr" r="A82">
         <is>
-          <t xml:space="preserve">DL00082</t>
+          <t xml:space="preserve">SV00082</t>
         </is>
       </c>
       <c t="inlineStr" r="B82">
         <is>
-          <t xml:space="preserve">New Pedal Bar Tour and Party Business for sale in Dallas</t>
-        </is>
-      </c>
-      <c r="C82" s="63">
-        <v>95000</v>
+          <t xml:space="preserve">Family Owned Fundraising &amp; Event Management Company</t>
+        </is>
+      </c>
+      <c r="C82" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="D82">
         <is>
-          <t xml:space="preserve">Texas</t>
+          <t xml:space="preserve">California</t>
         </is>
       </c>
       <c r="E82" s="65">
         <v>0</v>
       </c>
-      <c r="F82" s="65">
-        <v>0</v>
+      <c r="F82" s="63">
+        <v>451986</v>
       </c>
       <c t="inlineStr" r="G82">
         <is>
-          <t xml:space="preserve">Arts, Entertainment &amp; Recreation</t>
+          <t xml:space="preserve">Other Services (except public administration)</t>
         </is>
       </c>
       <c t="inlineStr" r="H82">
         <is>
-          <t xml:space="preserve">Amusement, Gambling, and Recreation Industries</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I82">
         <is>
-          <t xml:space="preserve">Randy Jones</t>
+          <t xml:space="preserve">Raj Sathyaseelan</t>
         </is>
       </c>
       <c t="inlineStr" r="M82">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Refer to Broker</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c t="inlineStr" r="A83">
         <is>
-          <t xml:space="preserve">SV00082</t>
+          <t xml:space="preserve">SV00081</t>
         </is>
       </c>
       <c t="inlineStr" r="B83">
         <is>
-          <t xml:space="preserve">Family Owned Fundraising &amp; Event Management Company</t>
+          <t xml:space="preserve">Video Communication SaaS Platform, High Growth Startup</t>
         </is>
       </c>
       <c r="C83" s="65">
@@ -3998,28 +3998,28 @@
       </c>
       <c t="inlineStr" r="D83">
         <is>
-          <t xml:space="preserve">California</t>
+          <t xml:space="preserve">Alameda County</t>
         </is>
       </c>
       <c r="E83" s="65">
         <v>0</v>
       </c>
-      <c r="F83" s="63">
-        <v>451986</v>
+      <c r="F83" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G83">
         <is>
-          <t xml:space="preserve">Other Services (except public administration)</t>
+          <t xml:space="preserve">Information</t>
         </is>
       </c>
       <c t="inlineStr" r="H83">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Internet</t>
         </is>
       </c>
       <c t="inlineStr" r="I83">
         <is>
-          <t xml:space="preserve">Raj Sathyaseelan</t>
+          <t xml:space="preserve">David Jacobs</t>
         </is>
       </c>
       <c t="inlineStr" r="M83">
@@ -4031,77 +4031,77 @@
     <row r="84">
       <c t="inlineStr" r="A84">
         <is>
-          <t xml:space="preserve">SV00081</t>
+          <t xml:space="preserve">NYC00065</t>
         </is>
       </c>
       <c t="inlineStr" r="B84">
         <is>
-          <t xml:space="preserve">Video Communication SaaS Platform, High Growth Startup</t>
-        </is>
-      </c>
-      <c r="C84" s="65">
-        <v>0</v>
+          <t xml:space="preserve">Stella Doro/ hostess  Cookie route</t>
+        </is>
+      </c>
+      <c r="C84" s="63">
+        <v>125000</v>
       </c>
       <c t="inlineStr" r="D84">
         <is>
-          <t xml:space="preserve">Alameda County</t>
+          <t xml:space="preserve">New York</t>
         </is>
       </c>
       <c r="E84" s="65">
         <v>0</v>
       </c>
-      <c r="F84" s="65">
-        <v>0</v>
+      <c r="F84" s="63">
+        <v>80000</v>
       </c>
       <c t="inlineStr" r="G84">
         <is>
-          <t xml:space="preserve">Information</t>
+          <t xml:space="preserve">Franchises</t>
         </is>
       </c>
       <c t="inlineStr" r="H84">
         <is>
-          <t xml:space="preserve">Internet</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I84">
         <is>
-          <t xml:space="preserve">David Jacobs</t>
+          <t xml:space="preserve">Kingsley Allison</t>
         </is>
       </c>
       <c t="inlineStr" r="M84">
         <is>
-          <t xml:space="preserve">Refer to Broker</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c t="inlineStr" r="A85">
         <is>
-          <t xml:space="preserve">NYC00065</t>
+          <t xml:space="preserve">SV00079</t>
         </is>
       </c>
       <c t="inlineStr" r="B85">
         <is>
-          <t xml:space="preserve">Stella Doro/ hostess  Cookie route</t>
+          <t xml:space="preserve">Pizza Restaurant Located in High Traffic Location</t>
         </is>
       </c>
       <c r="C85" s="63">
-        <v>125000</v>
+        <v>70000</v>
       </c>
       <c t="inlineStr" r="D85">
         <is>
-          <t xml:space="preserve">New York</t>
+          <t xml:space="preserve">San Joaquin County</t>
         </is>
       </c>
       <c r="E85" s="65">
         <v>0</v>
       </c>
-      <c r="F85" s="63">
-        <v>80000</v>
+      <c r="F85" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G85">
         <is>
-          <t xml:space="preserve">Franchises</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="H85">
@@ -4111,7 +4111,12 @@
       </c>
       <c t="inlineStr" r="I85">
         <is>
-          <t xml:space="preserve">Kingsley Allison</t>
+          <t xml:space="preserve">Diane Ho</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J85">
+        <is>
+          <t xml:space="preserve">Raj Sathyaseelan</t>
         </is>
       </c>
       <c t="inlineStr" r="M85">
@@ -4123,27 +4128,27 @@
     <row r="86">
       <c t="inlineStr" r="A86">
         <is>
-          <t xml:space="preserve">SV00079</t>
+          <t xml:space="preserve">SV00078</t>
         </is>
       </c>
       <c t="inlineStr" r="B86">
         <is>
-          <t xml:space="preserve">Pizza Restaurant Located in High Traffic Location</t>
+          <t xml:space="preserve">Profitable Japanese Sushi Restaurant, Healthy Food</t>
         </is>
       </c>
       <c r="C86" s="63">
-        <v>70000</v>
+        <v>199000</v>
       </c>
       <c t="inlineStr" r="D86">
         <is>
-          <t xml:space="preserve">San Joaquin County</t>
+          <t xml:space="preserve">Greater San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E86" s="65">
         <v>0</v>
       </c>
-      <c r="F86" s="65">
-        <v>0</v>
+      <c r="F86" s="63">
+        <v>120000</v>
       </c>
       <c t="inlineStr" r="G86">
         <is>
@@ -4158,11 +4163,6 @@
       <c t="inlineStr" r="I86">
         <is>
           <t xml:space="preserve">Diane Ho</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J86">
-        <is>
-          <t xml:space="preserve">Raj Sathyaseelan</t>
         </is>
       </c>
       <c t="inlineStr" r="M86">
@@ -4174,31 +4174,31 @@
     <row r="87">
       <c t="inlineStr" r="A87">
         <is>
-          <t xml:space="preserve">SV00078</t>
+          <t xml:space="preserve">SV00077</t>
         </is>
       </c>
       <c t="inlineStr" r="B87">
         <is>
-          <t xml:space="preserve">Profitable Japanese Sushi Restaurant, Healthy Food</t>
+          <t xml:space="preserve">New Burger Franchise, Fast Casual Restaurant</t>
         </is>
       </c>
       <c r="C87" s="63">
-        <v>199000</v>
+        <v>200000</v>
       </c>
       <c t="inlineStr" r="D87">
         <is>
-          <t xml:space="preserve">Greater San Francisco Bay Area</t>
+          <t xml:space="preserve">Northern California</t>
         </is>
       </c>
       <c r="E87" s="65">
         <v>0</v>
       </c>
       <c r="F87" s="63">
-        <v>120000</v>
+        <v>75000</v>
       </c>
       <c t="inlineStr" r="G87">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Franchises</t>
         </is>
       </c>
       <c t="inlineStr" r="H87">
@@ -4213,43 +4213,43 @@
       </c>
       <c t="inlineStr" r="M87">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Includes $3K Inventory</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c t="inlineStr" r="A88">
         <is>
-          <t xml:space="preserve">SV00077</t>
+          <t xml:space="preserve">SV00076</t>
         </is>
       </c>
       <c t="inlineStr" r="B88">
         <is>
-          <t xml:space="preserve">New Burger Franchise, Fast Casual Restaurant</t>
+          <t xml:space="preserve">Profitable Hotel Franchise with Real Estate</t>
         </is>
       </c>
       <c r="C88" s="63">
-        <v>200000</v>
+        <v>6700000</v>
       </c>
       <c t="inlineStr" r="D88">
         <is>
-          <t xml:space="preserve">Northern California</t>
+          <t xml:space="preserve">San Benito County</t>
         </is>
       </c>
       <c r="E88" s="65">
         <v>0</v>
       </c>
       <c r="F88" s="63">
-        <v>75000</v>
+        <v>400000</v>
       </c>
       <c t="inlineStr" r="G88">
         <is>
-          <t xml:space="preserve">Franchises</t>
+          <t xml:space="preserve">Real Estate and Rental &amp; Leasing</t>
         </is>
       </c>
       <c t="inlineStr" r="H88">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Rental and Leasing Services</t>
         </is>
       </c>
       <c t="inlineStr" r="I88">
@@ -4259,48 +4259,48 @@
       </c>
       <c t="inlineStr" r="M88">
         <is>
-          <t xml:space="preserve">Includes $3K Inventory</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c t="inlineStr" r="A89">
         <is>
-          <t xml:space="preserve">SV00076</t>
+          <t xml:space="preserve">PAE00202</t>
         </is>
       </c>
       <c t="inlineStr" r="B89">
         <is>
-          <t xml:space="preserve">Profitable Hotel Franchise with Real Estate</t>
+          <t xml:space="preserve">Award Winning Turnkey Child Daycare, Seller Carry, Low Rent</t>
         </is>
       </c>
       <c r="C89" s="63">
-        <v>6700000</v>
+        <v>190000</v>
       </c>
       <c t="inlineStr" r="D89">
         <is>
-          <t xml:space="preserve">San Benito County</t>
+          <t xml:space="preserve">Pennsylvania</t>
         </is>
       </c>
       <c r="E89" s="65">
         <v>0</v>
       </c>
       <c r="F89" s="63">
-        <v>400000</v>
+        <v>88558</v>
       </c>
       <c t="inlineStr" r="G89">
         <is>
-          <t xml:space="preserve">Real Estate and Rental &amp; Leasing</t>
+          <t xml:space="preserve">Educational Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H89">
         <is>
-          <t xml:space="preserve">Rental and Leasing Services</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I89">
         <is>
-          <t xml:space="preserve">Diane Ho</t>
+          <t xml:space="preserve">Aaron Herr</t>
         </is>
       </c>
       <c t="inlineStr" r="M89">
@@ -4312,31 +4312,31 @@
     <row r="90">
       <c t="inlineStr" r="A90">
         <is>
-          <t xml:space="preserve">PAE00202</t>
+          <t xml:space="preserve">SV00075</t>
         </is>
       </c>
       <c t="inlineStr" r="B90">
         <is>
-          <t xml:space="preserve">Award Winning Turnkey Child Daycare, Seller Carry, Low Rent</t>
+          <t xml:space="preserve">Data Migration Company with Fortune 500 Clients</t>
         </is>
       </c>
       <c r="C90" s="63">
-        <v>190000</v>
+        <v>7500000</v>
       </c>
       <c t="inlineStr" r="D90">
         <is>
-          <t xml:space="preserve">Pennsylvania</t>
+          <t xml:space="preserve">Greater San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E90" s="65">
         <v>0</v>
       </c>
-      <c r="F90" s="63">
-        <v>88558</v>
+      <c r="F90" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G90">
         <is>
-          <t xml:space="preserve">Educational Services</t>
+          <t xml:space="preserve">Information</t>
         </is>
       </c>
       <c t="inlineStr" r="H90">
@@ -4346,7 +4346,7 @@
       </c>
       <c t="inlineStr" r="I90">
         <is>
-          <t xml:space="preserve">Aaron Herr</t>
+          <t xml:space="preserve">David Jacobs</t>
         </is>
       </c>
       <c t="inlineStr" r="M90">
@@ -4358,31 +4358,31 @@
     <row r="91">
       <c t="inlineStr" r="A91">
         <is>
-          <t xml:space="preserve">SV00075</t>
+          <t xml:space="preserve">PAE00200</t>
         </is>
       </c>
       <c t="inlineStr" r="B91">
         <is>
-          <t xml:space="preserve">Data Migration Company with Fortune 500 Clients</t>
-        </is>
-      </c>
-      <c r="C91" s="63">
-        <v>7500000</v>
+          <t xml:space="preserve">Highly Profitable Steel &amp; Metal Fabricator Meeting Wide Array of Client Needs</t>
+        </is>
+      </c>
+      <c r="C91" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="D91">
         <is>
-          <t xml:space="preserve">Greater San Francisco Bay Area</t>
+          <t xml:space="preserve">Eastern Pennsylvania</t>
         </is>
       </c>
       <c r="E91" s="65">
         <v>0</v>
       </c>
-      <c r="F91" s="65">
-        <v>0</v>
+      <c r="F91" s="63">
+        <v>523000</v>
       </c>
       <c t="inlineStr" r="G91">
         <is>
-          <t xml:space="preserve">Information</t>
+          <t xml:space="preserve">Manufacturing</t>
         </is>
       </c>
       <c t="inlineStr" r="H91">
@@ -4392,43 +4392,43 @@
       </c>
       <c t="inlineStr" r="I91">
         <is>
-          <t xml:space="preserve">David Jacobs</t>
+          <t xml:space="preserve">Joseph Guarino</t>
         </is>
       </c>
       <c t="inlineStr" r="M91">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Refer to Broker</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c t="inlineStr" r="A92">
         <is>
-          <t xml:space="preserve">PAE00200</t>
+          <t xml:space="preserve">SV00073</t>
         </is>
       </c>
       <c t="inlineStr" r="B92">
         <is>
-          <t xml:space="preserve">Highly Profitable Steel &amp; Metal Fabricator Meeting Wide Array of Client Needs</t>
-        </is>
-      </c>
-      <c r="C92" s="65">
-        <v>0</v>
+          <t xml:space="preserve">Iconic Transportation Business with Corporate Clients</t>
+        </is>
+      </c>
+      <c r="C92" s="63">
+        <v>2300000</v>
       </c>
       <c t="inlineStr" r="D92">
         <is>
-          <t xml:space="preserve">Eastern Pennsylvania</t>
+          <t xml:space="preserve">Greater San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E92" s="65">
         <v>0</v>
       </c>
       <c r="F92" s="63">
-        <v>523000</v>
+        <v>448109</v>
       </c>
       <c t="inlineStr" r="G92">
         <is>
-          <t xml:space="preserve">Manufacturing</t>
+          <t xml:space="preserve">Transportation &amp; Warehousing</t>
         </is>
       </c>
       <c t="inlineStr" r="H92">
@@ -4438,28 +4438,33 @@
       </c>
       <c t="inlineStr" r="I92">
         <is>
-          <t xml:space="preserve">Joseph Guarino</t>
+          <t xml:space="preserve">Antoinette Norris</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J92">
+        <is>
+          <t xml:space="preserve">Raj Sathyaseelan</t>
         </is>
       </c>
       <c t="inlineStr" r="M92">
         <is>
-          <t xml:space="preserve">Refer to Broker</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c t="inlineStr" r="A93">
         <is>
-          <t xml:space="preserve">SV00073</t>
+          <t xml:space="preserve">SV00072</t>
         </is>
       </c>
       <c t="inlineStr" r="B93">
         <is>
-          <t xml:space="preserve">Iconic Transportation Business with Corporate Clients</t>
+          <t xml:space="preserve">Casino Party Company for Events Celebration</t>
         </is>
       </c>
       <c r="C93" s="63">
-        <v>2300000</v>
+        <v>165000</v>
       </c>
       <c t="inlineStr" r="D93">
         <is>
@@ -4470,24 +4475,19 @@
         <v>0</v>
       </c>
       <c r="F93" s="63">
-        <v>448109</v>
+        <v>60000</v>
       </c>
       <c t="inlineStr" r="G93">
         <is>
-          <t xml:space="preserve">Transportation &amp; Warehousing</t>
+          <t xml:space="preserve">Arts, Entertainment &amp; Recreation</t>
         </is>
       </c>
       <c t="inlineStr" r="H93">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Amusement, Gambling, and Recreation Industries</t>
         </is>
       </c>
       <c t="inlineStr" r="I93">
-        <is>
-          <t xml:space="preserve">Antoinette Norris</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J93">
         <is>
           <t xml:space="preserve">Raj Sathyaseelan</t>
         </is>
@@ -4501,41 +4501,41 @@
     <row r="94">
       <c t="inlineStr" r="A94">
         <is>
-          <t xml:space="preserve">SV00072</t>
+          <t xml:space="preserve">NYC00063</t>
         </is>
       </c>
       <c t="inlineStr" r="B94">
         <is>
-          <t xml:space="preserve">Casino Party Company for Events Celebration</t>
+          <t xml:space="preserve">Premier contractor for asphalt sealcoating &amp; repair services</t>
         </is>
       </c>
       <c r="C94" s="63">
-        <v>165000</v>
+        <v>230000</v>
       </c>
       <c t="inlineStr" r="D94">
         <is>
-          <t xml:space="preserve">Greater San Francisco Bay Area</t>
+          <t xml:space="preserve">Connecticut</t>
         </is>
       </c>
       <c r="E94" s="65">
         <v>0</v>
       </c>
       <c r="F94" s="63">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c t="inlineStr" r="G94">
         <is>
-          <t xml:space="preserve">Arts, Entertainment &amp; Recreation</t>
+          <t xml:space="preserve">Administrative &amp; Support &amp; Waste Management &amp; Remediation Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H94">
         <is>
-          <t xml:space="preserve">Amusement, Gambling, and Recreation Industries</t>
+          <t xml:space="preserve">Waste Management and Remediation Services</t>
         </is>
       </c>
       <c t="inlineStr" r="I94">
         <is>
-          <t xml:space="preserve">Raj Sathyaseelan</t>
+          <t xml:space="preserve">Kingsley Allison</t>
         </is>
       </c>
       <c t="inlineStr" r="M94">
@@ -4547,133 +4547,133 @@
     <row r="95">
       <c t="inlineStr" r="A95">
         <is>
-          <t xml:space="preserve">NYC00063</t>
+          <t xml:space="preserve">PAE00197</t>
         </is>
       </c>
       <c t="inlineStr" r="B95">
         <is>
-          <t xml:space="preserve">Premier contractor for asphalt sealcoating &amp; repair services</t>
+          <t xml:space="preserve">Profitable Commercial Maintenance (Lawn Care, Landscaping and Snow Removal) Company</t>
         </is>
       </c>
       <c r="C95" s="63">
-        <v>230000</v>
+        <v>525500</v>
       </c>
       <c t="inlineStr" r="D95">
         <is>
-          <t xml:space="preserve">Connecticut</t>
+          <t xml:space="preserve">New Jersey</t>
         </is>
       </c>
       <c r="E95" s="65">
         <v>0</v>
       </c>
       <c r="F95" s="63">
-        <v>50000</v>
+        <v>159228</v>
       </c>
       <c t="inlineStr" r="G95">
         <is>
-          <t xml:space="preserve">Administrative &amp; Support &amp; Waste Management &amp; Remediation Services</t>
+          <t xml:space="preserve">Other Services (except public administration)</t>
         </is>
       </c>
       <c t="inlineStr" r="H95">
         <is>
-          <t xml:space="preserve">Waste Management and Remediation Services</t>
+          <t xml:space="preserve">Repair and Maintenance</t>
         </is>
       </c>
       <c t="inlineStr" r="I95">
         <is>
-          <t xml:space="preserve">Kingsley Allison</t>
+          <t xml:space="preserve">Scott Bishop</t>
         </is>
       </c>
       <c t="inlineStr" r="M95">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">FF&amp;E $351,126</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c t="inlineStr" r="A96">
         <is>
-          <t xml:space="preserve">PAE00197</t>
+          <t xml:space="preserve">SV00069</t>
         </is>
       </c>
       <c t="inlineStr" r="B96">
         <is>
-          <t xml:space="preserve">Profitable Commercial Maintenance (Lawn Care, Landscaping and Snow Removal) Company</t>
+          <t xml:space="preserve">FEDEX Delivery Business, Growth Potential</t>
         </is>
       </c>
       <c r="C96" s="63">
-        <v>525500</v>
+        <v>1250000</v>
       </c>
       <c t="inlineStr" r="D96">
         <is>
-          <t xml:space="preserve">New Jersey</t>
+          <t xml:space="preserve">Greater Sacramento Area</t>
         </is>
       </c>
       <c r="E96" s="65">
         <v>0</v>
       </c>
       <c r="F96" s="63">
-        <v>159228</v>
+        <v>160928</v>
       </c>
       <c t="inlineStr" r="G96">
         <is>
-          <t xml:space="preserve">Other Services (except public administration)</t>
+          <t xml:space="preserve">Transportation &amp; Warehousing</t>
         </is>
       </c>
       <c t="inlineStr" r="H96">
         <is>
-          <t xml:space="preserve">Repair and Maintenance</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I96">
         <is>
-          <t xml:space="preserve">Scott Bishop</t>
+          <t xml:space="preserve">Raj Sathyaseelan</t>
         </is>
       </c>
       <c t="inlineStr" r="M96">
         <is>
-          <t xml:space="preserve">FF&amp;E $351,126</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c t="inlineStr" r="A97">
         <is>
-          <t xml:space="preserve">SV00069</t>
+          <t xml:space="preserve">SV00068</t>
         </is>
       </c>
       <c t="inlineStr" r="B97">
         <is>
-          <t xml:space="preserve">FEDEX Delivery Business, Growth Potential</t>
+          <t xml:space="preserve">Profitable Beautiful Salon and Spa</t>
         </is>
       </c>
       <c r="C97" s="63">
-        <v>1250000</v>
+        <v>169000</v>
       </c>
       <c t="inlineStr" r="D97">
         <is>
-          <t xml:space="preserve">Greater Sacramento Area</t>
+          <t xml:space="preserve">Greater San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E97" s="65">
         <v>0</v>
       </c>
       <c r="F97" s="63">
-        <v>160928</v>
+        <v>51167</v>
       </c>
       <c t="inlineStr" r="G97">
         <is>
-          <t xml:space="preserve">Transportation &amp; Warehousing</t>
+          <t xml:space="preserve">Retail Trade</t>
         </is>
       </c>
       <c t="inlineStr" r="H97">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Miscellaneous Store Retailers</t>
         </is>
       </c>
       <c t="inlineStr" r="I97">
         <is>
-          <t xml:space="preserve">Raj Sathyaseelan</t>
+          <t xml:space="preserve">Diane Ho</t>
         </is>
       </c>
       <c t="inlineStr" r="M97">
@@ -4685,41 +4685,41 @@
     <row r="98">
       <c t="inlineStr" r="A98">
         <is>
-          <t xml:space="preserve">SV00068</t>
+          <t xml:space="preserve">NYC00061</t>
         </is>
       </c>
       <c t="inlineStr" r="B98">
         <is>
-          <t xml:space="preserve">Profitable Beautiful Salon and Spa</t>
+          <t xml:space="preserve">Established Latino restaurant  Excellent location</t>
         </is>
       </c>
       <c r="C98" s="63">
-        <v>169000</v>
+        <v>100000</v>
       </c>
       <c t="inlineStr" r="D98">
         <is>
-          <t xml:space="preserve">Greater San Francisco Bay Area</t>
+          <t xml:space="preserve">New York</t>
         </is>
       </c>
       <c r="E98" s="65">
         <v>0</v>
       </c>
       <c r="F98" s="63">
-        <v>51167</v>
+        <v>50000</v>
       </c>
       <c t="inlineStr" r="G98">
         <is>
-          <t xml:space="preserve">Retail Trade</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="H98">
         <is>
-          <t xml:space="preserve">Miscellaneous Store Retailers</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I98">
         <is>
-          <t xml:space="preserve">Diane Ho</t>
+          <t xml:space="preserve">Kingsley Allison</t>
         </is>
       </c>
       <c t="inlineStr" r="M98">
@@ -4731,31 +4731,31 @@
     <row r="99">
       <c t="inlineStr" r="A99">
         <is>
-          <t xml:space="preserve">NYC00061</t>
+          <t xml:space="preserve">FW00003</t>
         </is>
       </c>
       <c t="inlineStr" r="B99">
         <is>
-          <t xml:space="preserve">Established Latino restaurant  Excellent location</t>
+          <t xml:space="preserve">Profitable National Sports Memorabilia Co for Sale</t>
         </is>
       </c>
       <c r="C99" s="63">
-        <v>100000</v>
+        <v>1850000</v>
       </c>
       <c t="inlineStr" r="D99">
         <is>
-          <t xml:space="preserve">New York</t>
+          <t xml:space="preserve">Texas</t>
         </is>
       </c>
       <c r="E99" s="65">
         <v>0</v>
       </c>
       <c r="F99" s="63">
-        <v>50000</v>
+        <v>600000</v>
       </c>
       <c t="inlineStr" r="G99">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Arts, Entertainment &amp; Recreation</t>
         </is>
       </c>
       <c t="inlineStr" r="H99">
@@ -4765,7 +4765,7 @@
       </c>
       <c t="inlineStr" r="I99">
         <is>
-          <t xml:space="preserve">Kingsley Allison</t>
+          <t xml:space="preserve">Geoff Warrell</t>
         </is>
       </c>
       <c t="inlineStr" r="M99">
@@ -4777,31 +4777,31 @@
     <row r="100">
       <c t="inlineStr" r="A100">
         <is>
-          <t xml:space="preserve">FW00003</t>
+          <t xml:space="preserve">SV00067</t>
         </is>
       </c>
       <c t="inlineStr" r="B100">
         <is>
-          <t xml:space="preserve">Profitable National Sports Memorabilia Co for Sale</t>
+          <t xml:space="preserve">New Youth Sports Franchise, Los Angeles County</t>
         </is>
       </c>
       <c r="C100" s="63">
-        <v>1850000</v>
+        <v>40000</v>
       </c>
       <c t="inlineStr" r="D100">
         <is>
-          <t xml:space="preserve">Texas</t>
+          <t xml:space="preserve">Los Angeles County</t>
         </is>
       </c>
       <c r="E100" s="65">
         <v>0</v>
       </c>
-      <c r="F100" s="63">
-        <v>600000</v>
+      <c r="F100" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G100">
         <is>
-          <t xml:space="preserve">Arts, Entertainment &amp; Recreation</t>
+          <t xml:space="preserve">Franchises</t>
         </is>
       </c>
       <c t="inlineStr" r="H100">
@@ -4811,7 +4811,7 @@
       </c>
       <c t="inlineStr" r="I100">
         <is>
-          <t xml:space="preserve">Geoff Warrell</t>
+          <t xml:space="preserve">Raj Sathyaseelan</t>
         </is>
       </c>
       <c t="inlineStr" r="M100">
@@ -4823,20 +4823,20 @@
     <row r="101">
       <c t="inlineStr" r="A101">
         <is>
-          <t xml:space="preserve">SV00067</t>
+          <t xml:space="preserve">FW00002</t>
         </is>
       </c>
       <c t="inlineStr" r="B101">
         <is>
-          <t xml:space="preserve">New Youth Sports Franchise, Los Angeles County</t>
-        </is>
-      </c>
-      <c r="C101" s="63">
-        <v>40000</v>
+          <t xml:space="preserve">Personal Transport eBike Manufacturer with Intellectual Property, International Accolades &amp; Awards</t>
+        </is>
+      </c>
+      <c r="C101" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="D101">
         <is>
-          <t xml:space="preserve">Los Angeles County</t>
+          <t xml:space="preserve">Relocatable</t>
         </is>
       </c>
       <c r="E101" s="65">
@@ -4847,7 +4847,7 @@
       </c>
       <c t="inlineStr" r="G101">
         <is>
-          <t xml:space="preserve">Franchises</t>
+          <t xml:space="preserve">Manufacturing</t>
         </is>
       </c>
       <c t="inlineStr" r="H101">
@@ -4857,53 +4857,48 @@
       </c>
       <c t="inlineStr" r="I101">
         <is>
-          <t xml:space="preserve">Raj Sathyaseelan</t>
+          <t xml:space="preserve">Geoff Warrell</t>
         </is>
       </c>
       <c t="inlineStr" r="M101">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Refer to Broker</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c t="inlineStr" r="A102">
         <is>
-          <t xml:space="preserve">SV00065</t>
+          <t xml:space="preserve">SD00164</t>
         </is>
       </c>
       <c t="inlineStr" r="B102">
         <is>
-          <t xml:space="preserve">Three Profitable Subway Restaurants,Absentee Owner, SBA Qualified</t>
+          <t xml:space="preserve">San Diego Coastal Pilates Studio</t>
         </is>
       </c>
       <c r="C102" s="63">
-        <v>250000</v>
+        <v>50000</v>
       </c>
       <c t="inlineStr" r="D102">
         <is>
-          <t xml:space="preserve">Greater San Francisco Bay Area</t>
+          <t xml:space="preserve">San Diego County</t>
         </is>
       </c>
       <c r="E102" s="65">
         <v>0</v>
       </c>
-      <c r="F102" s="63">
-        <v>108000</v>
+      <c r="F102" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G102">
         <is>
-          <t xml:space="preserve">Franchises</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="H102">
         <is>
           <t xml:space="preserve">&lt;none&gt;</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I102">
-        <is>
-          <t xml:space="preserve">Diane Ho</t>
         </is>
       </c>
       <c t="inlineStr" r="M102">
@@ -4915,82 +4910,87 @@
     <row r="103">
       <c t="inlineStr" r="A103">
         <is>
-          <t xml:space="preserve">FW00002</t>
+          <t xml:space="preserve">DL00073</t>
         </is>
       </c>
       <c t="inlineStr" r="B103">
         <is>
-          <t xml:space="preserve">Personal Transport eBike Manufacturer with Intellectual Property, International Accolades &amp; Awards</t>
-        </is>
-      </c>
-      <c r="C103" s="65">
-        <v>0</v>
+          <t xml:space="preserve">Nationally Recognized Auto Repair Franchise for sale in DFW!</t>
+        </is>
+      </c>
+      <c r="C103" s="63">
+        <v>350000</v>
       </c>
       <c t="inlineStr" r="D103">
         <is>
-          <t xml:space="preserve">Relocatable</t>
+          <t xml:space="preserve">Texas</t>
         </is>
       </c>
       <c r="E103" s="65">
         <v>0</v>
       </c>
-      <c r="F103" s="65">
-        <v>0</v>
+      <c r="F103" s="63">
+        <v>129000</v>
       </c>
       <c t="inlineStr" r="G103">
         <is>
-          <t xml:space="preserve">Manufacturing</t>
+          <t xml:space="preserve">Other Services (except public administration)</t>
         </is>
       </c>
       <c t="inlineStr" r="H103">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Repair and Maintenance</t>
         </is>
       </c>
       <c t="inlineStr" r="I103">
         <is>
-          <t xml:space="preserve">Geoff Warrell</t>
+          <t xml:space="preserve">Tom Diedrich</t>
         </is>
       </c>
       <c t="inlineStr" r="M103">
         <is>
-          <t xml:space="preserve">Refer to Broker</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c t="inlineStr" r="A104">
         <is>
-          <t xml:space="preserve">SD00164</t>
+          <t xml:space="preserve">SV00058</t>
         </is>
       </c>
       <c t="inlineStr" r="B104">
         <is>
-          <t xml:space="preserve">San Diego Coastal Pilates Studio</t>
+          <t xml:space="preserve">Well Established IT Staffing Business with major clientele</t>
         </is>
       </c>
       <c r="C104" s="63">
-        <v>50000</v>
+        <v>3250000</v>
       </c>
       <c t="inlineStr" r="D104">
         <is>
-          <t xml:space="preserve">San Diego County</t>
+          <t xml:space="preserve">Greater San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E104" s="65">
         <v>0</v>
       </c>
-      <c r="F104" s="65">
-        <v>0</v>
+      <c r="F104" s="63">
+        <v>1048183</v>
       </c>
       <c t="inlineStr" r="G104">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Information</t>
         </is>
       </c>
       <c t="inlineStr" r="H104">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Other Information Services</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I104">
+        <is>
+          <t xml:space="preserve">Raj Sathyaseelan</t>
         </is>
       </c>
       <c t="inlineStr" r="M104">
@@ -5002,31 +5002,31 @@
     <row r="105">
       <c t="inlineStr" r="A105">
         <is>
-          <t xml:space="preserve">DL00076</t>
+          <t xml:space="preserve">PAE00179</t>
         </is>
       </c>
       <c t="inlineStr" r="B105">
         <is>
-          <t xml:space="preserve">Gourmet Pizza Cafe for Sale in North Dallas!</t>
+          <t xml:space="preserve">Widely Recognized Flower Bulb Fundraising &amp; Wholesale Company with a Long and Successful Operation</t>
         </is>
       </c>
       <c r="C105" s="63">
-        <v>325000</v>
+        <v>375000</v>
       </c>
       <c t="inlineStr" r="D105">
         <is>
-          <t xml:space="preserve">Texas</t>
+          <t xml:space="preserve">East Coast States</t>
         </is>
       </c>
       <c r="E105" s="65">
         <v>0</v>
       </c>
-      <c r="F105" s="65">
-        <v>0</v>
+      <c r="F105" s="63">
+        <v>169145</v>
       </c>
       <c t="inlineStr" r="G105">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Wholesale Trade</t>
         </is>
       </c>
       <c t="inlineStr" r="H105">
@@ -5036,7 +5036,7 @@
       </c>
       <c t="inlineStr" r="I105">
         <is>
-          <t xml:space="preserve">Tom Diedrich</t>
+          <t xml:space="preserve">Scott Bishop</t>
         </is>
       </c>
       <c t="inlineStr" r="M105">
@@ -5048,20 +5048,20 @@
     <row r="106">
       <c t="inlineStr" r="A106">
         <is>
-          <t xml:space="preserve">DL00075</t>
+          <t xml:space="preserve">PAE00178</t>
         </is>
       </c>
       <c t="inlineStr" r="B106">
         <is>
-          <t xml:space="preserve">Established Gourmet Pizza Cafe for sale in N. Dallas!</t>
+          <t xml:space="preserve">Turnkey Local Bottle Shop with Wide Selection, Seller Carry and Attractive Real Estate</t>
         </is>
       </c>
       <c r="C106" s="63">
-        <v>395000</v>
+        <v>500000</v>
       </c>
       <c t="inlineStr" r="D106">
         <is>
-          <t xml:space="preserve">Texas</t>
+          <t xml:space="preserve">Pennsylvania</t>
         </is>
       </c>
       <c r="E106" s="65">
@@ -5077,33 +5077,33 @@
       </c>
       <c t="inlineStr" r="H106">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Food Services and Drinking Places</t>
         </is>
       </c>
       <c t="inlineStr" r="I106">
         <is>
-          <t xml:space="preserve">Tom Diedrich</t>
+          <t xml:space="preserve">Aaron Herr</t>
         </is>
       </c>
       <c t="inlineStr" r="M106">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Includes Liquor License</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c t="inlineStr" r="A107">
         <is>
-          <t xml:space="preserve">DL00073</t>
+          <t xml:space="preserve">FW00001</t>
         </is>
       </c>
       <c t="inlineStr" r="B107">
         <is>
-          <t xml:space="preserve">Nationally Recognized Auto Repair Franchise for sale in DFW!</t>
+          <t xml:space="preserve">REDUCED Established Profitable Pizzeria</t>
         </is>
       </c>
       <c r="C107" s="63">
-        <v>350000</v>
+        <v>65000</v>
       </c>
       <c t="inlineStr" r="D107">
         <is>
@@ -5114,21 +5114,21 @@
         <v>0</v>
       </c>
       <c r="F107" s="63">
-        <v>129000</v>
+        <v>68000</v>
       </c>
       <c t="inlineStr" r="G107">
         <is>
-          <t xml:space="preserve">Other Services (except public administration)</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="H107">
         <is>
-          <t xml:space="preserve">Repair and Maintenance</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I107">
         <is>
-          <t xml:space="preserve">Tom Diedrich</t>
+          <t xml:space="preserve">Geoff Warrell</t>
         </is>
       </c>
       <c t="inlineStr" r="M107">
@@ -5140,41 +5140,36 @@
     <row r="108">
       <c t="inlineStr" r="A108">
         <is>
-          <t xml:space="preserve">SV00058</t>
+          <t xml:space="preserve">LA04701</t>
         </is>
       </c>
       <c t="inlineStr" r="B108">
         <is>
-          <t xml:space="preserve">Well Established IT Staffing Business with major clientele</t>
+          <t xml:space="preserve">Industrial Gases and Welding Supply Has No Significant Competition</t>
         </is>
       </c>
       <c r="C108" s="63">
-        <v>3250000</v>
+        <v>1795000</v>
       </c>
       <c t="inlineStr" r="D108">
         <is>
-          <t xml:space="preserve">Greater San Francisco Bay Area</t>
+          <t xml:space="preserve">California</t>
         </is>
       </c>
       <c r="E108" s="65">
         <v>0</v>
       </c>
       <c r="F108" s="63">
-        <v>1048183</v>
+        <v>518545</v>
       </c>
       <c t="inlineStr" r="G108">
         <is>
-          <t xml:space="preserve">Information</t>
+          <t xml:space="preserve">Wholesale Trade</t>
         </is>
       </c>
       <c t="inlineStr" r="H108">
         <is>
-          <t xml:space="preserve">Other Information Services</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I108">
-        <is>
-          <t xml:space="preserve">Raj Sathyaseelan</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="M108">
@@ -5186,31 +5181,31 @@
     <row r="109">
       <c t="inlineStr" r="A109">
         <is>
-          <t xml:space="preserve">PAE00179</t>
+          <t xml:space="preserve">SV00051</t>
         </is>
       </c>
       <c t="inlineStr" r="B109">
         <is>
-          <t xml:space="preserve">Widely Recognized Flower Bulb Fundraising &amp; Wholesale Company with a Long and Successful Operation</t>
+          <t xml:space="preserve">High volume Liquor store, Seller financing</t>
         </is>
       </c>
       <c r="C109" s="63">
-        <v>375000</v>
+        <v>350000</v>
       </c>
       <c t="inlineStr" r="D109">
         <is>
-          <t xml:space="preserve">East Coast States</t>
+          <t xml:space="preserve">Greater San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E109" s="65">
         <v>0</v>
       </c>
       <c r="F109" s="63">
-        <v>169145</v>
+        <v>158000</v>
       </c>
       <c t="inlineStr" r="G109">
         <is>
-          <t xml:space="preserve">Wholesale Trade</t>
+          <t xml:space="preserve">Retail Trade</t>
         </is>
       </c>
       <c t="inlineStr" r="H109">
@@ -5220,7 +5215,7 @@
       </c>
       <c t="inlineStr" r="I109">
         <is>
-          <t xml:space="preserve">Scott Bishop</t>
+          <t xml:space="preserve">Diane Ho</t>
         </is>
       </c>
       <c t="inlineStr" r="M109">
@@ -5232,73 +5227,73 @@
     <row r="110">
       <c t="inlineStr" r="A110">
         <is>
-          <t xml:space="preserve">PAE00178</t>
+          <t xml:space="preserve">SV00048</t>
         </is>
       </c>
       <c t="inlineStr" r="B110">
         <is>
-          <t xml:space="preserve">Turnkey Local Bottle Shop with Wide Selection, Seller Carry and Attractive Real Estate</t>
+          <t xml:space="preserve">Upscale Liquore Store, Major Intersection</t>
         </is>
       </c>
       <c r="C110" s="63">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c t="inlineStr" r="D110">
         <is>
-          <t xml:space="preserve">Pennsylvania</t>
+          <t xml:space="preserve">Greater San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E110" s="65">
         <v>0</v>
       </c>
-      <c r="F110" s="65">
-        <v>0</v>
+      <c r="F110" s="63">
+        <v>65000</v>
       </c>
       <c t="inlineStr" r="G110">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Retail Trade</t>
         </is>
       </c>
       <c t="inlineStr" r="H110">
         <is>
-          <t xml:space="preserve">Food Services and Drinking Places</t>
+          <t xml:space="preserve">Food and Beverage Stores</t>
         </is>
       </c>
       <c t="inlineStr" r="I110">
         <is>
-          <t xml:space="preserve">Aaron Herr</t>
+          <t xml:space="preserve">Diane Ho</t>
         </is>
       </c>
       <c t="inlineStr" r="M110">
         <is>
-          <t xml:space="preserve">Includes Liquor License</t>
+          <t xml:space="preserve">Includes Inventory</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c t="inlineStr" r="A111">
         <is>
-          <t xml:space="preserve">FW00001</t>
+          <t xml:space="preserve">SV00046</t>
         </is>
       </c>
       <c t="inlineStr" r="B111">
         <is>
-          <t xml:space="preserve">REDUCED Established Profitable Pizzeria</t>
+          <t xml:space="preserve">Authentic South Indian Vegetarian Restaurant, Amazing Location</t>
         </is>
       </c>
       <c r="C111" s="63">
-        <v>65000</v>
+        <v>300000</v>
       </c>
       <c t="inlineStr" r="D111">
         <is>
-          <t xml:space="preserve">Texas</t>
+          <t xml:space="preserve">Greater San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E111" s="65">
         <v>0</v>
       </c>
       <c r="F111" s="63">
-        <v>68000</v>
+        <v>40000</v>
       </c>
       <c t="inlineStr" r="G111">
         <is>
@@ -5312,7 +5307,7 @@
       </c>
       <c t="inlineStr" r="I111">
         <is>
-          <t xml:space="preserve">Geoff Warrell</t>
+          <t xml:space="preserve">Diane Ho</t>
         </is>
       </c>
       <c t="inlineStr" r="M111">
@@ -5324,16 +5319,16 @@
     <row r="112">
       <c t="inlineStr" r="A112">
         <is>
-          <t xml:space="preserve">LA04701</t>
+          <t xml:space="preserve">LA04687</t>
         </is>
       </c>
       <c t="inlineStr" r="B112">
         <is>
-          <t xml:space="preserve">Industrial Gases and Welding Supply Has No Significant Competition</t>
-        </is>
-      </c>
-      <c r="C112" s="63">
-        <v>1795000</v>
+          <t xml:space="preserve">Top Selling Name Brand Product 15 YRS Major Mass Retail Distribution</t>
+        </is>
+      </c>
+      <c r="C112" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="D112">
         <is>
@@ -5344,11 +5339,11 @@
         <v>0</v>
       </c>
       <c r="F112" s="63">
-        <v>518545</v>
+        <v>1000000</v>
       </c>
       <c t="inlineStr" r="G112">
         <is>
-          <t xml:space="preserve">Wholesale Trade</t>
+          <t xml:space="preserve">Manufacturing</t>
         </is>
       </c>
       <c t="inlineStr" r="H112">
@@ -5358,48 +5353,43 @@
       </c>
       <c t="inlineStr" r="M112">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Refer to Broker</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c t="inlineStr" r="A113">
         <is>
-          <t xml:space="preserve">SV00051</t>
+          <t xml:space="preserve">LA04684</t>
         </is>
       </c>
       <c t="inlineStr" r="B113">
         <is>
-          <t xml:space="preserve">High volume Liquor store, Seller financing</t>
+          <t xml:space="preserve">Absentee Run Franchise Teriyaki Restaurant in Riverside County</t>
         </is>
       </c>
       <c r="C113" s="63">
-        <v>350000</v>
+        <v>125000</v>
       </c>
       <c t="inlineStr" r="D113">
         <is>
-          <t xml:space="preserve">Greater San Francisco Bay Area</t>
+          <t xml:space="preserve">Riverside County</t>
         </is>
       </c>
       <c r="E113" s="65">
         <v>0</v>
       </c>
       <c r="F113" s="63">
-        <v>158000</v>
+        <v>25000</v>
       </c>
       <c t="inlineStr" r="G113">
         <is>
-          <t xml:space="preserve">Retail Trade</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="H113">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I113">
-        <is>
-          <t xml:space="preserve">Diane Ho</t>
+          <t xml:space="preserve">Food Services and Drinking Places</t>
         </is>
       </c>
       <c t="inlineStr" r="M113">
@@ -5411,12 +5401,12 @@
     <row r="114">
       <c t="inlineStr" r="A114">
         <is>
-          <t xml:space="preserve">SV00048</t>
+          <t xml:space="preserve">SV00044</t>
         </is>
       </c>
       <c t="inlineStr" r="B114">
         <is>
-          <t xml:space="preserve">Upscale Liquore Store, Major Intersection</t>
+          <t xml:space="preserve">Profitable Liquor Store with Breakfast Deli</t>
         </is>
       </c>
       <c r="C114" s="63">
@@ -5430,8 +5420,8 @@
       <c r="E114" s="65">
         <v>0</v>
       </c>
-      <c r="F114" s="63">
-        <v>65000</v>
+      <c r="F114" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G114">
         <is>
@@ -5440,7 +5430,7 @@
       </c>
       <c t="inlineStr" r="H114">
         <is>
-          <t xml:space="preserve">Food and Beverage Stores</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I114">
@@ -5450,23 +5440,23 @@
       </c>
       <c t="inlineStr" r="M114">
         <is>
-          <t xml:space="preserve">Includes Inventory</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c t="inlineStr" r="A115">
         <is>
-          <t xml:space="preserve">SV00046</t>
+          <t xml:space="preserve">SV00043</t>
         </is>
       </c>
       <c t="inlineStr" r="B115">
         <is>
-          <t xml:space="preserve">Authentic South Indian Vegetarian Restaurant, Amazing Location</t>
+          <t xml:space="preserve">Transportation Service Business with growth potential</t>
         </is>
       </c>
       <c r="C115" s="63">
-        <v>300000</v>
+        <v>305000</v>
       </c>
       <c t="inlineStr" r="D115">
         <is>
@@ -5477,21 +5467,21 @@
         <v>0</v>
       </c>
       <c r="F115" s="63">
-        <v>40000</v>
+        <v>185638</v>
       </c>
       <c t="inlineStr" r="G115">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Transportation &amp; Warehousing</t>
         </is>
       </c>
       <c t="inlineStr" r="H115">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Transit and Ground Passenger Transportation</t>
         </is>
       </c>
       <c t="inlineStr" r="I115">
         <is>
-          <t xml:space="preserve">Diane Ho</t>
+          <t xml:space="preserve">Raj Sathyaseelan</t>
         </is>
       </c>
       <c t="inlineStr" r="M115">
@@ -5503,27 +5493,27 @@
     <row r="116">
       <c t="inlineStr" r="A116">
         <is>
-          <t xml:space="preserve">LA04687</t>
+          <t xml:space="preserve">LA04668</t>
         </is>
       </c>
       <c t="inlineStr" r="B116">
         <is>
-          <t xml:space="preserve">Top Selling Name Brand Product 15 YRS Major Mass Retail Distribution</t>
-        </is>
-      </c>
-      <c r="C116" s="65">
-        <v>0</v>
+          <t xml:space="preserve">Profitable Turnkey Niche Machine Shop</t>
+        </is>
+      </c>
+      <c r="C116" s="63">
+        <v>360000</v>
       </c>
       <c t="inlineStr" r="D116">
         <is>
-          <t xml:space="preserve">California</t>
+          <t xml:space="preserve">Orange County</t>
         </is>
       </c>
       <c r="E116" s="65">
         <v>0</v>
       </c>
-      <c r="F116" s="63">
-        <v>1000000</v>
+      <c r="F116" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G116">
         <is>
@@ -5532,48 +5522,53 @@
       </c>
       <c t="inlineStr" r="H116">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Transportation Equipment Manufacturing</t>
         </is>
       </c>
       <c t="inlineStr" r="M116">
         <is>
-          <t xml:space="preserve">Refer to Broker</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c t="inlineStr" r="A117">
         <is>
-          <t xml:space="preserve">LA04684</t>
+          <t xml:space="preserve">SV00040</t>
         </is>
       </c>
       <c t="inlineStr" r="B117">
         <is>
-          <t xml:space="preserve">Absentee Run Franchise Teriyaki Restaurant in Riverside County</t>
+          <t xml:space="preserve">Two dry cleaning business for one price, 30 years of history</t>
         </is>
       </c>
       <c r="C117" s="63">
-        <v>125000</v>
+        <v>380000</v>
       </c>
       <c t="inlineStr" r="D117">
         <is>
-          <t xml:space="preserve">Riverside County</t>
+          <t xml:space="preserve">Greater San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E117" s="65">
         <v>0</v>
       </c>
-      <c r="F117" s="63">
-        <v>25000</v>
+      <c r="F117" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G117">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Other Services (except public administration)</t>
         </is>
       </c>
       <c t="inlineStr" r="H117">
         <is>
-          <t xml:space="preserve">Food Services and Drinking Places</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I117">
+        <is>
+          <t xml:space="preserve">Diane Ho</t>
         </is>
       </c>
       <c t="inlineStr" r="M117">
@@ -5585,16 +5580,16 @@
     <row r="118">
       <c t="inlineStr" r="A118">
         <is>
-          <t xml:space="preserve">SV00044</t>
+          <t xml:space="preserve">SV00037</t>
         </is>
       </c>
       <c t="inlineStr" r="B118">
         <is>
-          <t xml:space="preserve">Profitable Liquor Store with Breakfast Deli</t>
+          <t xml:space="preserve">Boutique HealthCare IT Services Company, Onsite and Offshore Delivery, Growth Potential</t>
         </is>
       </c>
       <c r="C118" s="63">
-        <v>400000</v>
+        <v>1800000</v>
       </c>
       <c t="inlineStr" r="D118">
         <is>
@@ -5604,12 +5599,12 @@
       <c r="E118" s="65">
         <v>0</v>
       </c>
-      <c r="F118" s="65">
-        <v>0</v>
+      <c r="F118" s="63">
+        <v>393901</v>
       </c>
       <c t="inlineStr" r="G118">
         <is>
-          <t xml:space="preserve">Retail Trade</t>
+          <t xml:space="preserve">Professional, Scientific and Technical Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H118">
@@ -5619,7 +5614,7 @@
       </c>
       <c t="inlineStr" r="I118">
         <is>
-          <t xml:space="preserve">Diane Ho</t>
+          <t xml:space="preserve">Raj Sathyaseelan</t>
         </is>
       </c>
       <c t="inlineStr" r="M118">
@@ -5631,16 +5626,16 @@
     <row r="119">
       <c t="inlineStr" r="A119">
         <is>
-          <t xml:space="preserve">SV00043</t>
+          <t xml:space="preserve">SV00035</t>
         </is>
       </c>
       <c t="inlineStr" r="B119">
         <is>
-          <t xml:space="preserve">Transportation Service Business with growth potential</t>
+          <t xml:space="preserve">Established Liquor Store, Low Rent</t>
         </is>
       </c>
       <c r="C119" s="63">
-        <v>305000</v>
+        <v>100000</v>
       </c>
       <c t="inlineStr" r="D119">
         <is>
@@ -5650,22 +5645,22 @@
       <c r="E119" s="65">
         <v>0</v>
       </c>
-      <c r="F119" s="63">
-        <v>185638</v>
+      <c r="F119" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G119">
         <is>
-          <t xml:space="preserve">Transportation &amp; Warehousing</t>
+          <t xml:space="preserve">Retail Trade</t>
         </is>
       </c>
       <c t="inlineStr" r="H119">
         <is>
-          <t xml:space="preserve">Transit and Ground Passenger Transportation</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I119">
         <is>
-          <t xml:space="preserve">Raj Sathyaseelan</t>
+          <t xml:space="preserve">Diane Ho</t>
         </is>
       </c>
       <c t="inlineStr" r="M119">
@@ -5677,27 +5672,27 @@
     <row r="120">
       <c t="inlineStr" r="A120">
         <is>
-          <t xml:space="preserve">DL00070</t>
+          <t xml:space="preserve">LA04646</t>
         </is>
       </c>
       <c t="inlineStr" r="B120">
         <is>
-          <t xml:space="preserve">Very Successful Gourmet Italian Pizzeria CONCEPT for Sale !</t>
+          <t xml:space="preserve">Breakfast &amp; Lunch Only Cafes (4 locations), High Volume and Profit</t>
         </is>
       </c>
       <c r="C120" s="63">
-        <v>4900000</v>
+        <v>3200000</v>
       </c>
       <c t="inlineStr" r="D120">
         <is>
-          <t xml:space="preserve">Undisclosed</t>
+          <t xml:space="preserve">South Bay Cities &amp; Long Beach</t>
         </is>
       </c>
       <c r="E120" s="65">
         <v>0</v>
       </c>
       <c r="F120" s="63">
-        <v>360000</v>
+        <v>980000</v>
       </c>
       <c t="inlineStr" r="G120">
         <is>
@@ -5707,11 +5702,6 @@
       <c t="inlineStr" r="H120">
         <is>
           <t xml:space="preserve">Food Services and Drinking Places</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I120">
-        <is>
-          <t xml:space="preserve">Tom Diedrich</t>
         </is>
       </c>
       <c t="inlineStr" r="M120">
@@ -5723,20 +5713,20 @@
     <row r="121">
       <c t="inlineStr" r="A121">
         <is>
-          <t xml:space="preserve">LA04668</t>
+          <t xml:space="preserve">NYC00054</t>
         </is>
       </c>
       <c t="inlineStr" r="B121">
         <is>
-          <t xml:space="preserve">Profitable Turnkey Niche Machine Shop</t>
+          <t xml:space="preserve">Great Value for the money Convenience Store &amp; Deli off the highway</t>
         </is>
       </c>
       <c r="C121" s="63">
-        <v>360000</v>
+        <v>95000</v>
       </c>
       <c t="inlineStr" r="D121">
         <is>
-          <t xml:space="preserve">Orange County</t>
+          <t xml:space="preserve">New York</t>
         </is>
       </c>
       <c r="E121" s="65">
@@ -5747,12 +5737,17 @@
       </c>
       <c t="inlineStr" r="G121">
         <is>
-          <t xml:space="preserve">Manufacturing</t>
+          <t xml:space="preserve">Retail Trade</t>
         </is>
       </c>
       <c t="inlineStr" r="H121">
         <is>
-          <t xml:space="preserve">Transportation Equipment Manufacturing</t>
+          <t xml:space="preserve">Food and Beverage Stores</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I121">
+        <is>
+          <t xml:space="preserve">Kingsley Allison</t>
         </is>
       </c>
       <c t="inlineStr" r="M121">
@@ -5764,31 +5759,31 @@
     <row r="122">
       <c t="inlineStr" r="A122">
         <is>
-          <t xml:space="preserve">SV00040</t>
+          <t xml:space="preserve">SV00033</t>
         </is>
       </c>
       <c t="inlineStr" r="B122">
         <is>
-          <t xml:space="preserve">Two dry cleaning business for one price, 30 years of history</t>
+          <t xml:space="preserve">Fast Growing, Profitable Youth Sports Franchise</t>
         </is>
       </c>
       <c r="C122" s="63">
-        <v>380000</v>
+        <v>300000</v>
       </c>
       <c t="inlineStr" r="D122">
         <is>
-          <t xml:space="preserve">Greater San Francisco Bay Area</t>
+          <t xml:space="preserve">Orange County</t>
         </is>
       </c>
       <c r="E122" s="65">
         <v>0</v>
       </c>
-      <c r="F122" s="65">
-        <v>0</v>
+      <c r="F122" s="63">
+        <v>131842</v>
       </c>
       <c t="inlineStr" r="G122">
         <is>
-          <t xml:space="preserve">Other Services (except public administration)</t>
+          <t xml:space="preserve">Franchises</t>
         </is>
       </c>
       <c t="inlineStr" r="H122">
@@ -5798,7 +5793,7 @@
       </c>
       <c t="inlineStr" r="I122">
         <is>
-          <t xml:space="preserve">Diane Ho</t>
+          <t xml:space="preserve">Raj Sathyaseelan</t>
         </is>
       </c>
       <c t="inlineStr" r="M122">
@@ -5810,31 +5805,31 @@
     <row r="123">
       <c t="inlineStr" r="A123">
         <is>
-          <t xml:space="preserve">SV00037</t>
+          <t xml:space="preserve">NYC00053</t>
         </is>
       </c>
       <c t="inlineStr" r="B123">
         <is>
-          <t xml:space="preserve">Boutique HealthCare IT Services Company, Onsite and Offshore Delivery, Growth Potential</t>
+          <t xml:space="preserve">Full service Hand car wash</t>
         </is>
       </c>
       <c r="C123" s="63">
-        <v>1800000</v>
+        <v>175000</v>
       </c>
       <c t="inlineStr" r="D123">
         <is>
-          <t xml:space="preserve">Greater San Francisco Bay Area</t>
+          <t xml:space="preserve">New York</t>
         </is>
       </c>
       <c r="E123" s="65">
         <v>0</v>
       </c>
       <c r="F123" s="63">
-        <v>393901</v>
+        <v>175000</v>
       </c>
       <c t="inlineStr" r="G123">
         <is>
-          <t xml:space="preserve">Professional, Scientific and Technical Services</t>
+          <t xml:space="preserve">Management of Companies &amp; Enterprises</t>
         </is>
       </c>
       <c t="inlineStr" r="H123">
@@ -5844,7 +5839,7 @@
       </c>
       <c t="inlineStr" r="I123">
         <is>
-          <t xml:space="preserve">Raj Sathyaseelan</t>
+          <t xml:space="preserve">Kingsley Allison</t>
         </is>
       </c>
       <c t="inlineStr" r="M123">
@@ -5856,31 +5851,31 @@
     <row r="124">
       <c t="inlineStr" r="A124">
         <is>
-          <t xml:space="preserve">SV00035</t>
+          <t xml:space="preserve">SV00031</t>
         </is>
       </c>
       <c t="inlineStr" r="B124">
         <is>
-          <t xml:space="preserve">Established Liquor Store, Low Rent</t>
+          <t xml:space="preserve">New Youth Sports Franchise Opportunity</t>
         </is>
       </c>
       <c r="C124" s="63">
-        <v>100000</v>
+        <v>56000</v>
       </c>
       <c t="inlineStr" r="D124">
         <is>
-          <t xml:space="preserve">Greater San Francisco Bay Area</t>
+          <t xml:space="preserve">Santa Clara County</t>
         </is>
       </c>
       <c r="E124" s="65">
         <v>0</v>
       </c>
-      <c r="F124" s="65">
-        <v>0</v>
+      <c r="F124" s="63">
+        <v>6398</v>
       </c>
       <c t="inlineStr" r="G124">
         <is>
-          <t xml:space="preserve">Retail Trade</t>
+          <t xml:space="preserve">Franchises</t>
         </is>
       </c>
       <c t="inlineStr" r="H124">
@@ -5890,7 +5885,7 @@
       </c>
       <c t="inlineStr" r="I124">
         <is>
-          <t xml:space="preserve">Diane Ho</t>
+          <t xml:space="preserve">Raj Sathyaseelan</t>
         </is>
       </c>
       <c t="inlineStr" r="M124">
@@ -5902,36 +5897,41 @@
     <row r="125">
       <c t="inlineStr" r="A125">
         <is>
-          <t xml:space="preserve">LA04646</t>
+          <t xml:space="preserve">SV00028</t>
         </is>
       </c>
       <c t="inlineStr" r="B125">
         <is>
-          <t xml:space="preserve">Breakfast &amp; Lunch Only Cafes (4 locations), High Volume and Profit</t>
+          <t xml:space="preserve">New and Growing Youth Sports Franchise opportunity</t>
         </is>
       </c>
       <c r="C125" s="63">
-        <v>3200000</v>
+        <v>100000</v>
       </c>
       <c t="inlineStr" r="D125">
         <is>
-          <t xml:space="preserve">South Bay Cities &amp; Long Beach</t>
+          <t xml:space="preserve">Greater Sacramento Area</t>
         </is>
       </c>
       <c r="E125" s="65">
         <v>0</v>
       </c>
       <c r="F125" s="63">
-        <v>980000</v>
+        <v>26736</v>
       </c>
       <c t="inlineStr" r="G125">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Franchises</t>
         </is>
       </c>
       <c t="inlineStr" r="H125">
         <is>
-          <t xml:space="preserve">Food Services and Drinking Places</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I125">
+        <is>
+          <t xml:space="preserve">Raj Sathyaseelan</t>
         </is>
       </c>
       <c t="inlineStr" r="M125">
@@ -5943,20 +5943,20 @@
     <row r="126">
       <c t="inlineStr" r="A126">
         <is>
-          <t xml:space="preserve">NYC00054</t>
+          <t xml:space="preserve">SV00025</t>
         </is>
       </c>
       <c t="inlineStr" r="B126">
         <is>
-          <t xml:space="preserve">Great Value for the money Convenience Store &amp; Deli off the highway</t>
+          <t xml:space="preserve">Liquor store with lotto sales, Busy Location</t>
         </is>
       </c>
       <c r="C126" s="63">
-        <v>95000</v>
+        <v>200000</v>
       </c>
       <c t="inlineStr" r="D126">
         <is>
-          <t xml:space="preserve">New York</t>
+          <t xml:space="preserve">Greater San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E126" s="65">
@@ -5972,48 +5972,48 @@
       </c>
       <c t="inlineStr" r="H126">
         <is>
-          <t xml:space="preserve">Food and Beverage Stores</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I126">
         <is>
-          <t xml:space="preserve">Kingsley Allison</t>
+          <t xml:space="preserve">Diane Ho</t>
         </is>
       </c>
       <c t="inlineStr" r="M126">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Plus Inventory</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c t="inlineStr" r="A127">
         <is>
-          <t xml:space="preserve">SV00033</t>
+          <t xml:space="preserve">NYC00051</t>
         </is>
       </c>
       <c t="inlineStr" r="B127">
         <is>
-          <t xml:space="preserve">Fast Growing, Profitable Youth Sports Franchise</t>
+          <t xml:space="preserve">Profitable Growing laundromat with 60W/60 D in Busy Main St</t>
         </is>
       </c>
       <c r="C127" s="63">
-        <v>300000</v>
+        <v>895000</v>
       </c>
       <c t="inlineStr" r="D127">
         <is>
-          <t xml:space="preserve">Orange County</t>
+          <t xml:space="preserve">New York</t>
         </is>
       </c>
       <c r="E127" s="65">
         <v>0</v>
       </c>
-      <c r="F127" s="63">
-        <v>131842</v>
+      <c r="F127" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G127">
         <is>
-          <t xml:space="preserve">Franchises</t>
+          <t xml:space="preserve">Professional, Scientific and Technical Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H127">
@@ -6023,7 +6023,7 @@
       </c>
       <c t="inlineStr" r="I127">
         <is>
-          <t xml:space="preserve">Raj Sathyaseelan</t>
+          <t xml:space="preserve">Kingsley Allison</t>
         </is>
       </c>
       <c t="inlineStr" r="M127">
@@ -6035,123 +6035,128 @@
     <row r="128">
       <c t="inlineStr" r="A128">
         <is>
-          <t xml:space="preserve">DL00068</t>
+          <t xml:space="preserve">SV00022</t>
         </is>
       </c>
       <c t="inlineStr" r="B128">
         <is>
-          <t xml:space="preserve">Gourmet Pizza Restaurant for Sale in N. TX!</t>
+          <t xml:space="preserve">Wonderful and Well Established Liquor Store</t>
         </is>
       </c>
       <c r="C128" s="63">
-        <v>425000</v>
+        <v>150000</v>
       </c>
       <c t="inlineStr" r="D128">
         <is>
-          <t xml:space="preserve">North Texas</t>
+          <t xml:space="preserve">Greater San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E128" s="65">
         <v>0</v>
       </c>
-      <c r="F128" s="63">
-        <v>144000</v>
+      <c r="F128" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G128">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Retail Trade</t>
         </is>
       </c>
       <c t="inlineStr" r="H128">
         <is>
-          <t xml:space="preserve">Food Services and Drinking Places</t>
+          <t xml:space="preserve">General Merchandise Stores</t>
         </is>
       </c>
       <c t="inlineStr" r="I128">
         <is>
-          <t xml:space="preserve">Tom Diedrich</t>
+          <t xml:space="preserve">Diane Ho</t>
         </is>
       </c>
       <c t="inlineStr" r="M128">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Plus $40K Inventory</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c t="inlineStr" r="A129">
         <is>
-          <t xml:space="preserve">NYC00053</t>
+          <t xml:space="preserve">SV00020</t>
         </is>
       </c>
       <c t="inlineStr" r="B129">
         <is>
-          <t xml:space="preserve">Full service Hand car wash</t>
+          <t xml:space="preserve">Profitable Dry Cleaning Business, OmniChannel Strategy, Built for Growth</t>
         </is>
       </c>
       <c r="C129" s="63">
-        <v>175000</v>
+        <v>1700000</v>
       </c>
       <c t="inlineStr" r="D129">
         <is>
-          <t xml:space="preserve">New York</t>
+          <t xml:space="preserve">Greater San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E129" s="65">
         <v>0</v>
       </c>
       <c r="F129" s="63">
-        <v>175000</v>
+        <v>426189</v>
       </c>
       <c t="inlineStr" r="G129">
         <is>
-          <t xml:space="preserve">Management of Companies &amp; Enterprises</t>
+          <t xml:space="preserve">Retail Trade</t>
         </is>
       </c>
       <c t="inlineStr" r="H129">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Miscellaneous Store Retailers</t>
         </is>
       </c>
       <c t="inlineStr" r="I129">
         <is>
-          <t xml:space="preserve">Kingsley Allison</t>
+          <t xml:space="preserve">Diane Ho</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J129">
+        <is>
+          <t xml:space="preserve">Raj Sathyaseelan</t>
         </is>
       </c>
       <c t="inlineStr" r="M129">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Includes $5K Inventory</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c t="inlineStr" r="A130">
         <is>
-          <t xml:space="preserve">SV00031</t>
+          <t xml:space="preserve">NYC00049</t>
         </is>
       </c>
       <c t="inlineStr" r="B130">
         <is>
-          <t xml:space="preserve">New Youth Sports Franchise Opportunity</t>
+          <t xml:space="preserve">Established 25 yrs old Residential Cleaning Service</t>
         </is>
       </c>
       <c r="C130" s="63">
-        <v>56000</v>
+        <v>850000</v>
       </c>
       <c t="inlineStr" r="D130">
         <is>
-          <t xml:space="preserve">Santa Clara County</t>
+          <t xml:space="preserve">Fairfield</t>
         </is>
       </c>
       <c r="E130" s="65">
         <v>0</v>
       </c>
       <c r="F130" s="63">
-        <v>6398</v>
+        <v>175000</v>
       </c>
       <c t="inlineStr" r="G130">
         <is>
-          <t xml:space="preserve">Franchises</t>
+          <t xml:space="preserve">Professional, Scientific and Technical Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H130">
@@ -6161,7 +6166,7 @@
       </c>
       <c t="inlineStr" r="I130">
         <is>
-          <t xml:space="preserve">Raj Sathyaseelan</t>
+          <t xml:space="preserve">Kingsley Allison</t>
         </is>
       </c>
       <c t="inlineStr" r="M130">
@@ -6173,41 +6178,36 @@
     <row r="131">
       <c t="inlineStr" r="A131">
         <is>
-          <t xml:space="preserve">SV00028</t>
+          <t xml:space="preserve">LA04577</t>
         </is>
       </c>
       <c t="inlineStr" r="B131">
         <is>
-          <t xml:space="preserve">New and Growing Youth Sports Franchise opportunity</t>
+          <t xml:space="preserve">Technology Driven Furniture Manufacturer, Great Profits</t>
         </is>
       </c>
       <c r="C131" s="63">
-        <v>100000</v>
+        <v>2000000</v>
       </c>
       <c t="inlineStr" r="D131">
         <is>
-          <t xml:space="preserve">Greater Sacramento Area</t>
+          <t xml:space="preserve">North Los Angeles County</t>
         </is>
       </c>
       <c r="E131" s="65">
         <v>0</v>
       </c>
       <c r="F131" s="63">
-        <v>26736</v>
+        <v>1100000</v>
       </c>
       <c t="inlineStr" r="G131">
         <is>
-          <t xml:space="preserve">Franchises</t>
+          <t xml:space="preserve">Manufacturing</t>
         </is>
       </c>
       <c t="inlineStr" r="H131">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I131">
-        <is>
-          <t xml:space="preserve">Raj Sathyaseelan</t>
+          <t xml:space="preserve">Furniture and Related Product Manufacturing</t>
         </is>
       </c>
       <c t="inlineStr" r="M131">
@@ -6219,16 +6219,16 @@
     <row r="132">
       <c t="inlineStr" r="A132">
         <is>
-          <t xml:space="preserve">SV00025</t>
+          <t xml:space="preserve">SV00012</t>
         </is>
       </c>
       <c t="inlineStr" r="B132">
         <is>
-          <t xml:space="preserve">Liquor store with lotto sales, Busy Location</t>
+          <t xml:space="preserve">Unique and Desirable Medical Transportation Company with huge growth potential, Seller Financing</t>
         </is>
       </c>
       <c r="C132" s="63">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c t="inlineStr" r="D132">
         <is>
@@ -6238,58 +6238,58 @@
       <c r="E132" s="65">
         <v>0</v>
       </c>
-      <c r="F132" s="65">
-        <v>0</v>
+      <c r="F132" s="63">
+        <v>120243</v>
       </c>
       <c t="inlineStr" r="G132">
         <is>
-          <t xml:space="preserve">Retail Trade</t>
+          <t xml:space="preserve">Transportation &amp; Warehousing</t>
         </is>
       </c>
       <c t="inlineStr" r="H132">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Truck Transportation</t>
         </is>
       </c>
       <c t="inlineStr" r="I132">
         <is>
-          <t xml:space="preserve">Diane Ho</t>
+          <t xml:space="preserve">Raj Sathyaseelan</t>
         </is>
       </c>
       <c t="inlineStr" r="M132">
         <is>
-          <t xml:space="preserve">Plus Inventory</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c t="inlineStr" r="A133">
         <is>
-          <t xml:space="preserve">NYC00051</t>
+          <t xml:space="preserve">PAE00105</t>
         </is>
       </c>
       <c t="inlineStr" r="B133">
         <is>
-          <t xml:space="preserve">Profitable Growing laundromat with 60W/60 D in Busy Main St</t>
+          <t xml:space="preserve">Authentic Italian Pizzeria, Highly Profitable Seller Carry Low Rent</t>
         </is>
       </c>
       <c r="C133" s="63">
-        <v>895000</v>
+        <v>700000</v>
       </c>
       <c t="inlineStr" r="D133">
         <is>
-          <t xml:space="preserve">New York</t>
+          <t xml:space="preserve">Pennsylvania</t>
         </is>
       </c>
       <c r="E133" s="65">
         <v>0</v>
       </c>
-      <c r="F133" s="65">
-        <v>0</v>
+      <c r="F133" s="63">
+        <v>311852</v>
       </c>
       <c t="inlineStr" r="G133">
         <is>
-          <t xml:space="preserve">Professional, Scientific and Technical Services</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="H133">
@@ -6299,7 +6299,7 @@
       </c>
       <c t="inlineStr" r="I133">
         <is>
-          <t xml:space="preserve">Kingsley Allison</t>
+          <t xml:space="preserve">Aaron Herr</t>
         </is>
       </c>
       <c t="inlineStr" r="M133">
@@ -6311,133 +6311,128 @@
     <row r="134">
       <c t="inlineStr" r="A134">
         <is>
-          <t xml:space="preserve">SV00022</t>
+          <t xml:space="preserve">NYC00046</t>
         </is>
       </c>
       <c t="inlineStr" r="B134">
         <is>
-          <t xml:space="preserve">Wonderful and Well Established Liquor Store</t>
+          <t xml:space="preserve">28 year old New York City Custom Signs manufacturer</t>
         </is>
       </c>
       <c r="C134" s="63">
-        <v>150000</v>
+        <v>400000</v>
       </c>
       <c t="inlineStr" r="D134">
         <is>
-          <t xml:space="preserve">Greater San Francisco Bay Area</t>
+          <t xml:space="preserve">New York</t>
         </is>
       </c>
       <c r="E134" s="65">
         <v>0</v>
       </c>
-      <c r="F134" s="65">
-        <v>0</v>
+      <c r="F134" s="63">
+        <v>100000</v>
       </c>
       <c t="inlineStr" r="G134">
         <is>
-          <t xml:space="preserve">Retail Trade</t>
+          <t xml:space="preserve">Manufacturing</t>
         </is>
       </c>
       <c t="inlineStr" r="H134">
         <is>
-          <t xml:space="preserve">General Merchandise Stores</t>
+          <t xml:space="preserve">Printing and Related Support Activities</t>
         </is>
       </c>
       <c t="inlineStr" r="I134">
         <is>
-          <t xml:space="preserve">Diane Ho</t>
+          <t xml:space="preserve">Kingsley Allison</t>
         </is>
       </c>
       <c t="inlineStr" r="M134">
         <is>
-          <t xml:space="preserve">Plus $40K Inventory</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c t="inlineStr" r="A135">
         <is>
-          <t xml:space="preserve">SV00020</t>
+          <t xml:space="preserve">LA04544</t>
         </is>
       </c>
       <c t="inlineStr" r="B135">
         <is>
-          <t xml:space="preserve">Profitable Dry Cleaning Business, OmniChannel Strategy, Built for Growth</t>
+          <t xml:space="preserve">3 Franchise Sandwich Shops, Semi Absentee Run</t>
         </is>
       </c>
       <c r="C135" s="63">
-        <v>1700000</v>
+        <v>250000</v>
       </c>
       <c t="inlineStr" r="D135">
         <is>
-          <t xml:space="preserve">Greater San Francisco Bay Area</t>
+          <t xml:space="preserve">South Orange County</t>
         </is>
       </c>
       <c r="E135" s="65">
         <v>0</v>
       </c>
       <c r="F135" s="63">
-        <v>426189</v>
+        <v>80000</v>
       </c>
       <c t="inlineStr" r="G135">
         <is>
-          <t xml:space="preserve">Retail Trade</t>
+          <t xml:space="preserve">Franchises</t>
         </is>
       </c>
       <c t="inlineStr" r="H135">
         <is>
-          <t xml:space="preserve">Miscellaneous Store Retailers</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I135">
-        <is>
-          <t xml:space="preserve">Diane Ho</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J135">
-        <is>
-          <t xml:space="preserve">Raj Sathyaseelan</t>
+          <t xml:space="preserve">Sandwich shops, limited-service</t>
         </is>
       </c>
       <c t="inlineStr" r="M135">
         <is>
-          <t xml:space="preserve">Includes $5K Inventory</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c t="inlineStr" r="A136">
         <is>
-          <t xml:space="preserve">DL00066</t>
+          <t xml:space="preserve">PAE00047</t>
         </is>
       </c>
       <c t="inlineStr" r="B136">
         <is>
-          <t xml:space="preserve">Unique Ice Cream Cafe</t>
+          <t xml:space="preserve">High Profit, Niche First Aid Service &amp; Industrial Safety Supply Company with Large, Loyal Customers</t>
         </is>
       </c>
       <c r="C136" s="63">
-        <v>250000</v>
+        <v>175000</v>
       </c>
       <c t="inlineStr" r="D136">
         <is>
-          <t xml:space="preserve">North Texas</t>
+          <t xml:space="preserve">Pennsylvania</t>
         </is>
       </c>
       <c r="E136" s="65">
         <v>0</v>
       </c>
-      <c r="F136" s="65">
-        <v>0</v>
+      <c r="F136" s="63">
+        <v>65000</v>
       </c>
       <c t="inlineStr" r="G136">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Professional, Scientific and Technical Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H136">
         <is>
-          <t xml:space="preserve">Accommodation</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I136">
+        <is>
+          <t xml:space="preserve">Joseph Guarino</t>
         </is>
       </c>
       <c t="inlineStr" r="M136">
@@ -6449,82 +6444,87 @@
     <row r="137">
       <c t="inlineStr" r="A137">
         <is>
-          <t xml:space="preserve">NYC00049</t>
+          <t xml:space="preserve">PAE00042</t>
         </is>
       </c>
       <c t="inlineStr" r="B137">
         <is>
-          <t xml:space="preserve">Established 25 yrs old Residential Cleaning Service</t>
-        </is>
-      </c>
-      <c r="C137" s="63">
-        <v>850000</v>
+          <t xml:space="preserve">Highly Respected Sports Bar and Basic American Cafe/ Italian Restaurant with Liquor License</t>
+        </is>
+      </c>
+      <c r="C137" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="D137">
         <is>
-          <t xml:space="preserve">Fairfield</t>
+          <t xml:space="preserve">Lancaster</t>
         </is>
       </c>
       <c r="E137" s="65">
         <v>0</v>
       </c>
       <c r="F137" s="63">
-        <v>175000</v>
+        <v>79658</v>
       </c>
       <c t="inlineStr" r="G137">
         <is>
-          <t xml:space="preserve">Professional, Scientific and Technical Services</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="H137">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Food Services and Drinking Places</t>
         </is>
       </c>
       <c t="inlineStr" r="I137">
         <is>
-          <t xml:space="preserve">Kingsley Allison</t>
+          <t xml:space="preserve">Aaron Herr</t>
         </is>
       </c>
       <c t="inlineStr" r="M137">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Refer to Broker</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c t="inlineStr" r="A138">
         <is>
-          <t xml:space="preserve">LA04577</t>
+          <t xml:space="preserve">DL00057</t>
         </is>
       </c>
       <c t="inlineStr" r="B138">
         <is>
-          <t xml:space="preserve">Technology Driven Furniture Manufacturer, Great Profits</t>
+          <t xml:space="preserve">Profitable Wholesale Jewelry Business with 30 Year History</t>
         </is>
       </c>
       <c r="C138" s="63">
-        <v>2000000</v>
+        <v>1850000</v>
       </c>
       <c t="inlineStr" r="D138">
         <is>
-          <t xml:space="preserve">North Los Angeles County</t>
+          <t xml:space="preserve">North Texas</t>
         </is>
       </c>
       <c r="E138" s="65">
         <v>0</v>
       </c>
       <c r="F138" s="63">
-        <v>1100000</v>
+        <v>326000</v>
       </c>
       <c t="inlineStr" r="G138">
         <is>
-          <t xml:space="preserve">Manufacturing</t>
+          <t xml:space="preserve">Wholesale Trade</t>
         </is>
       </c>
       <c t="inlineStr" r="H138">
         <is>
-          <t xml:space="preserve">Furniture and Related Product Manufacturing</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I138">
+        <is>
+          <t xml:space="preserve">Tom Diedrich</t>
         </is>
       </c>
       <c t="inlineStr" r="M138">
@@ -6536,41 +6536,41 @@
     <row r="139">
       <c t="inlineStr" r="A139">
         <is>
-          <t xml:space="preserve">SV00012</t>
+          <t xml:space="preserve">NYC00043</t>
         </is>
       </c>
       <c t="inlineStr" r="B139">
         <is>
-          <t xml:space="preserve">Unique and Desirable Medical Transportation Company with huge growth potential, Seller Financing</t>
+          <t xml:space="preserve">Gas Station Excellent Highly Visible Location on Busy Main Road</t>
         </is>
       </c>
       <c r="C139" s="63">
-        <v>250000</v>
+        <v>390000</v>
       </c>
       <c t="inlineStr" r="D139">
         <is>
-          <t xml:space="preserve">Greater San Francisco Bay Area</t>
+          <t xml:space="preserve">Westchester County</t>
         </is>
       </c>
       <c r="E139" s="65">
         <v>0</v>
       </c>
       <c r="F139" s="63">
-        <v>120243</v>
+        <v>100000</v>
       </c>
       <c t="inlineStr" r="G139">
         <is>
-          <t xml:space="preserve">Transportation &amp; Warehousing</t>
+          <t xml:space="preserve">Retail Trade</t>
         </is>
       </c>
       <c t="inlineStr" r="H139">
         <is>
-          <t xml:space="preserve">Truck Transportation</t>
+          <t xml:space="preserve">Gasoline Stations</t>
         </is>
       </c>
       <c t="inlineStr" r="I139">
         <is>
-          <t xml:space="preserve">Raj Sathyaseelan</t>
+          <t xml:space="preserve">Kingsley Allison</t>
         </is>
       </c>
       <c t="inlineStr" r="M139">
@@ -6582,31 +6582,31 @@
     <row r="140">
       <c t="inlineStr" r="A140">
         <is>
-          <t xml:space="preserve">DL00064</t>
+          <t xml:space="preserve">NYC00042</t>
         </is>
       </c>
       <c t="inlineStr" r="B140">
         <is>
-          <t xml:space="preserve">Privately Owned Oil &amp; Gas Manufacturer with Profitable History</t>
+          <t xml:space="preserve">mosquito, Flee &amp; tick control Business for sale in Nassau, County</t>
         </is>
       </c>
       <c r="C140" s="63">
-        <v>1995000</v>
+        <v>60000</v>
       </c>
       <c t="inlineStr" r="D140">
         <is>
-          <t xml:space="preserve">Texas</t>
+          <t xml:space="preserve">Long Island</t>
         </is>
       </c>
       <c r="E140" s="65">
         <v>0</v>
       </c>
       <c r="F140" s="63">
-        <v>560000</v>
+        <v>60000</v>
       </c>
       <c t="inlineStr" r="G140">
         <is>
-          <t xml:space="preserve">Manufacturing</t>
+          <t xml:space="preserve">Professional, Scientific and Technical Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H140">
@@ -6616,7 +6616,7 @@
       </c>
       <c t="inlineStr" r="I140">
         <is>
-          <t xml:space="preserve">Tom Diedrich</t>
+          <t xml:space="preserve">Kingsley Allison</t>
         </is>
       </c>
       <c t="inlineStr" r="M140">
@@ -6628,31 +6628,31 @@
     <row r="141">
       <c t="inlineStr" r="A141">
         <is>
-          <t xml:space="preserve">PAE00105</t>
+          <t xml:space="preserve">SV00004</t>
         </is>
       </c>
       <c t="inlineStr" r="B141">
         <is>
-          <t xml:space="preserve">Authentic Italian Pizzeria, Highly Profitable Seller Carry Low Rent</t>
+          <t xml:space="preserve">Well Established and profitable Franchise Hair Salon (Absentee Run)</t>
         </is>
       </c>
       <c r="C141" s="63">
-        <v>700000</v>
+        <v>45000</v>
       </c>
       <c t="inlineStr" r="D141">
         <is>
-          <t xml:space="preserve">Pennsylvania</t>
+          <t xml:space="preserve">Greater San Francisco Bay Area</t>
         </is>
       </c>
       <c r="E141" s="65">
         <v>0</v>
       </c>
-      <c r="F141" s="63">
-        <v>311852</v>
+      <c r="F141" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G141">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Franchises</t>
         </is>
       </c>
       <c t="inlineStr" r="H141">
@@ -6662,32 +6662,32 @@
       </c>
       <c t="inlineStr" r="I141">
         <is>
-          <t xml:space="preserve">Aaron Herr</t>
+          <t xml:space="preserve">Raj Sathyaseelan</t>
         </is>
       </c>
       <c t="inlineStr" r="M141">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Includes Inventory</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c t="inlineStr" r="A142">
         <is>
-          <t xml:space="preserve">DL00061</t>
+          <t xml:space="preserve">SV00003</t>
         </is>
       </c>
       <c t="inlineStr" r="B142">
         <is>
-          <t xml:space="preserve">Successful Pizza Restaurant Licensing for sale!</t>
+          <t xml:space="preserve">New Franchise Hair Salon (Absentee Run)</t>
         </is>
       </c>
       <c r="C142" s="63">
-        <v>200000</v>
+        <v>45000</v>
       </c>
       <c t="inlineStr" r="D142">
         <is>
-          <t xml:space="preserve">North Texas</t>
+          <t xml:space="preserve">Alameda County</t>
         </is>
       </c>
       <c r="E142" s="65">
@@ -6698,7 +6698,7 @@
       </c>
       <c t="inlineStr" r="G142">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Franchises</t>
         </is>
       </c>
       <c t="inlineStr" r="H142">
@@ -6708,7 +6708,7 @@
       </c>
       <c t="inlineStr" r="I142">
         <is>
-          <t xml:space="preserve">Tom Diedrich</t>
+          <t xml:space="preserve">Raj Sathyaseelan</t>
         </is>
       </c>
       <c t="inlineStr" r="M142">
@@ -6720,82 +6720,82 @@
     <row r="143">
       <c t="inlineStr" r="A143">
         <is>
-          <t xml:space="preserve">NYC00046</t>
+          <t xml:space="preserve">LA04470</t>
         </is>
       </c>
       <c t="inlineStr" r="B143">
         <is>
-          <t xml:space="preserve">28 year old New York City Custom Signs manufacturer</t>
+          <t xml:space="preserve">Full Service CPA Firm, Shadows of Disneyland</t>
         </is>
       </c>
       <c r="C143" s="63">
-        <v>400000</v>
+        <v>1250000</v>
       </c>
       <c t="inlineStr" r="D143">
         <is>
-          <t xml:space="preserve">New York</t>
+          <t xml:space="preserve">Orange County</t>
         </is>
       </c>
       <c r="E143" s="65">
         <v>0</v>
       </c>
       <c r="F143" s="63">
-        <v>100000</v>
+        <v>132673</v>
       </c>
       <c t="inlineStr" r="G143">
         <is>
-          <t xml:space="preserve">Manufacturing</t>
+          <t xml:space="preserve">Professional, Scientific and Technical Services</t>
         </is>
       </c>
       <c t="inlineStr" r="H143">
         <is>
-          <t xml:space="preserve">Printing and Related Support Activities</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I143">
-        <is>
-          <t xml:space="preserve">Kingsley Allison</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="M143">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Seller Financing</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c t="inlineStr" r="A144">
         <is>
-          <t xml:space="preserve">LA04544</t>
+          <t xml:space="preserve">NYC00038</t>
         </is>
       </c>
       <c t="inlineStr" r="B144">
         <is>
-          <t xml:space="preserve">3 Franchise Sandwich Shops, Semi Absentee Run</t>
+          <t xml:space="preserve">Need to sell immediate Highly successful Pizza franchise</t>
         </is>
       </c>
       <c r="C144" s="63">
-        <v>250000</v>
+        <v>175000</v>
       </c>
       <c t="inlineStr" r="D144">
         <is>
-          <t xml:space="preserve">South Orange County</t>
+          <t xml:space="preserve">Long Island</t>
         </is>
       </c>
       <c r="E144" s="65">
         <v>0</v>
       </c>
       <c r="F144" s="63">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c t="inlineStr" r="G144">
         <is>
-          <t xml:space="preserve">Franchises</t>
+          <t xml:space="preserve">Restaurant</t>
         </is>
       </c>
       <c t="inlineStr" r="H144">
         <is>
-          <t xml:space="preserve">Sandwich shops, limited-service</t>
+          <t xml:space="preserve">Food Services and Drinking Places</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I144">
+        <is>
+          <t xml:space="preserve">Kingsley Allison</t>
         </is>
       </c>
       <c t="inlineStr" r="M144">
@@ -6807,31 +6807,31 @@
     <row r="145">
       <c t="inlineStr" r="A145">
         <is>
-          <t xml:space="preserve">PAE00047</t>
+          <t xml:space="preserve">DL00053</t>
         </is>
       </c>
       <c t="inlineStr" r="B145">
         <is>
-          <t xml:space="preserve">High Profit, Niche First Aid Service &amp; Industrial Safety Supply Company with Large, Loyal Customers</t>
+          <t xml:space="preserve">Long Standing Profitable Equipment Rental Business for sale in N. TX!</t>
         </is>
       </c>
       <c r="C145" s="63">
-        <v>175000</v>
+        <v>995000</v>
       </c>
       <c t="inlineStr" r="D145">
         <is>
-          <t xml:space="preserve">Pennsylvania</t>
+          <t xml:space="preserve">North Texas</t>
         </is>
       </c>
       <c r="E145" s="65">
         <v>0</v>
       </c>
       <c r="F145" s="63">
-        <v>65000</v>
+        <v>182000</v>
       </c>
       <c t="inlineStr" r="G145">
         <is>
-          <t xml:space="preserve">Professional, Scientific and Technical Services</t>
+          <t xml:space="preserve">Other Services (except public administration)</t>
         </is>
       </c>
       <c t="inlineStr" r="H145">
@@ -6841,7 +6841,7 @@
       </c>
       <c t="inlineStr" r="I145">
         <is>
-          <t xml:space="preserve">Joseph Guarino</t>
+          <t xml:space="preserve">Tom Diedrich</t>
         </is>
       </c>
       <c t="inlineStr" r="M145">
@@ -6853,82 +6853,87 @@
     <row r="146">
       <c t="inlineStr" r="A146">
         <is>
-          <t xml:space="preserve">PAE00042</t>
+          <t xml:space="preserve">DL00052</t>
         </is>
       </c>
       <c t="inlineStr" r="B146">
         <is>
-          <t xml:space="preserve">Highly Respected Sports Bar and Basic American Cafe/ Italian Restaurant with Liquor License</t>
-        </is>
-      </c>
-      <c r="C146" s="65">
-        <v>0</v>
+          <t xml:space="preserve">Profitable On Line E Commerce Business for sale in N. TX!</t>
+        </is>
+      </c>
+      <c r="C146" s="63">
+        <v>325000</v>
       </c>
       <c t="inlineStr" r="D146">
         <is>
-          <t xml:space="preserve">Lancaster</t>
+          <t xml:space="preserve">North Texas</t>
         </is>
       </c>
       <c r="E146" s="65">
         <v>0</v>
       </c>
       <c r="F146" s="63">
-        <v>79658</v>
+        <v>84000</v>
       </c>
       <c t="inlineStr" r="G146">
         <is>
-          <t xml:space="preserve">Restaurant</t>
+          <t xml:space="preserve">Retail Trade</t>
         </is>
       </c>
       <c t="inlineStr" r="H146">
         <is>
-          <t xml:space="preserve">Food Services and Drinking Places</t>
+          <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
       <c t="inlineStr" r="I146">
         <is>
-          <t xml:space="preserve">Aaron Herr</t>
+          <t xml:space="preserve">Tom Diedrich</t>
         </is>
       </c>
       <c t="inlineStr" r="M146">
         <is>
-          <t xml:space="preserve">Refer to Broker</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c t="inlineStr" r="A147">
         <is>
-          <t xml:space="preserve">DL00060</t>
+          <t xml:space="preserve">NYC00028</t>
         </is>
       </c>
       <c t="inlineStr" r="B147">
         <is>
-          <t xml:space="preserve">One of a Kind Child Care Center in the Dallas Ft.Worth Metroplex</t>
+          <t xml:space="preserve">Five Star Beautiful And Well Equipped Laundromat For Sale</t>
         </is>
       </c>
       <c r="C147" s="63">
-        <v>175000</v>
+        <v>1810000</v>
       </c>
       <c t="inlineStr" r="D147">
         <is>
-          <t xml:space="preserve">Texas</t>
+          <t xml:space="preserve">Brooklyn</t>
         </is>
       </c>
       <c r="E147" s="65">
         <v>0</v>
       </c>
       <c r="F147" s="63">
-        <v>72000</v>
+        <v>361094</v>
       </c>
       <c t="inlineStr" r="G147">
         <is>
-          <t xml:space="preserve">Educational Services</t>
+          <t xml:space="preserve">Other Services (except public administration)</t>
         </is>
       </c>
       <c t="inlineStr" r="H147">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Drycleaning and Laundry Services</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I147">
+        <is>
+          <t xml:space="preserve">Kingsley Allison</t>
         </is>
       </c>
       <c t="inlineStr" r="M147">
@@ -6940,36 +6945,41 @@
     <row r="148">
       <c t="inlineStr" r="A148">
         <is>
-          <t xml:space="preserve">DL00059</t>
+          <t xml:space="preserve">NYC00026</t>
         </is>
       </c>
       <c t="inlineStr" r="B148">
         <is>
-          <t xml:space="preserve">Established Daycare Center with over 30 years of history and the same owners in developing East, TX</t>
+          <t xml:space="preserve">Highly successful Limousine business</t>
         </is>
       </c>
       <c r="C148" s="63">
-        <v>1625000</v>
+        <v>150000</v>
       </c>
       <c t="inlineStr" r="D148">
         <is>
-          <t xml:space="preserve">Texas</t>
+          <t xml:space="preserve">Brooklyn</t>
         </is>
       </c>
       <c r="E148" s="65">
         <v>0</v>
       </c>
-      <c r="F148" s="65">
-        <v>0</v>
+      <c r="F148" s="63">
+        <v>90000</v>
       </c>
       <c t="inlineStr" r="G148">
         <is>
-          <t xml:space="preserve">Educational Services</t>
+          <t xml:space="preserve">Transportation &amp; Warehousing</t>
         </is>
       </c>
       <c t="inlineStr" r="H148">
         <is>
           <t xml:space="preserve">&lt;none&gt;</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I148">
+        <is>
+          <t xml:space="preserve">Kingsley Allison</t>
         </is>
       </c>
       <c t="inlineStr" r="M148">
@@ -6981,57 +6991,62 @@
     <row r="149">
       <c t="inlineStr" r="A149">
         <is>
-          <t xml:space="preserve">DL00058</t>
+          <t xml:space="preserve">NYC00024</t>
         </is>
       </c>
       <c t="inlineStr" r="B149">
         <is>
-          <t xml:space="preserve">Child Care Facility in desirable Houston suburb</t>
+          <t xml:space="preserve">Completely Updated Motel in Orange county, NY for sale including property</t>
         </is>
       </c>
       <c r="C149" s="63">
-        <v>3700000</v>
+        <v>2000000</v>
       </c>
       <c t="inlineStr" r="D149">
         <is>
-          <t xml:space="preserve">Texas</t>
+          <t xml:space="preserve">Orange County</t>
         </is>
       </c>
       <c r="E149" s="65">
         <v>0</v>
       </c>
-      <c r="F149" s="63">
-        <v>280000</v>
+      <c r="F149" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G149">
         <is>
-          <t xml:space="preserve">Educational Services</t>
+          <t xml:space="preserve">Real Estate and Rental &amp; Leasing</t>
         </is>
       </c>
       <c t="inlineStr" r="H149">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Real Estate</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I149">
+        <is>
+          <t xml:space="preserve">Kingsley Allison</t>
         </is>
       </c>
       <c t="inlineStr" r="M149">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Real estate included</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c t="inlineStr" r="A150">
         <is>
-          <t xml:space="preserve">DL00057</t>
+          <t xml:space="preserve">DL00042</t>
         </is>
       </c>
       <c t="inlineStr" r="B150">
         <is>
-          <t xml:space="preserve">Profitable Wholesale Jewelry Business with 30 Year History</t>
+          <t xml:space="preserve">Unique Opportunity to Own Two Flooring Companies in North Texas</t>
         </is>
       </c>
       <c r="C150" s="63">
-        <v>1850000</v>
+        <v>330000</v>
       </c>
       <c t="inlineStr" r="D150">
         <is>
@@ -7042,16 +7057,16 @@
         <v>0</v>
       </c>
       <c r="F150" s="63">
-        <v>326000</v>
+        <v>173000</v>
       </c>
       <c t="inlineStr" r="G150">
         <is>
-          <t xml:space="preserve">Wholesale Trade</t>
+          <t xml:space="preserve">Construction</t>
         </is>
       </c>
       <c t="inlineStr" r="H150">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Specialty Trade Contractors</t>
         </is>
       </c>
       <c t="inlineStr" r="I150">
@@ -7068,16 +7083,16 @@
     <row r="151">
       <c t="inlineStr" r="A151">
         <is>
-          <t xml:space="preserve">NYC00043</t>
+          <t xml:space="preserve">NYC00018</t>
         </is>
       </c>
       <c t="inlineStr" r="B151">
         <is>
-          <t xml:space="preserve">Gas Station Excellent Highly Visible Location on Busy Main Road</t>
+          <t xml:space="preserve">Highly successful Laundromat in  Yonkers</t>
         </is>
       </c>
       <c r="C151" s="63">
-        <v>390000</v>
+        <v>399000</v>
       </c>
       <c t="inlineStr" r="D151">
         <is>
@@ -7092,12 +7107,12 @@
       </c>
       <c t="inlineStr" r="G151">
         <is>
-          <t xml:space="preserve">Retail Trade</t>
+          <t xml:space="preserve">Other Services (except public administration)</t>
         </is>
       </c>
       <c t="inlineStr" r="H151">
         <is>
-          <t xml:space="preserve">Gasoline Stations</t>
+          <t xml:space="preserve">Drycleaning and Laundry Services</t>
         </is>
       </c>
       <c t="inlineStr" r="I151">
@@ -7114,36 +7129,36 @@
     <row r="152">
       <c t="inlineStr" r="A152">
         <is>
-          <t xml:space="preserve">NYC00042</t>
+          <t xml:space="preserve">NYC00016</t>
         </is>
       </c>
       <c t="inlineStr" r="B152">
         <is>
-          <t xml:space="preserve">mosquito, Flee &amp; tick control Business for sale in Nassau, County</t>
-        </is>
-      </c>
-      <c r="C152" s="63">
-        <v>60000</v>
+          <t xml:space="preserve">Highly successful &amp; growing Landscaping and Maintenance business</t>
+        </is>
+      </c>
+      <c r="C152" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="D152">
         <is>
-          <t xml:space="preserve">Long Island</t>
+          <t xml:space="preserve">Westchester County</t>
         </is>
       </c>
       <c r="E152" s="65">
         <v>0</v>
       </c>
-      <c r="F152" s="63">
-        <v>60000</v>
+      <c r="F152" s="65">
+        <v>0</v>
       </c>
       <c t="inlineStr" r="G152">
         <is>
-          <t xml:space="preserve">Professional, Scientific and Technical Services</t>
+          <t xml:space="preserve">Other Services (except public administration)</t>
         </is>
       </c>
       <c t="inlineStr" r="H152">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Repair and Maintenance</t>
         </is>
       </c>
       <c t="inlineStr" r="I152">
@@ -7153,27 +7168,27 @@
       </c>
       <c t="inlineStr" r="M152">
         <is>
-          <t xml:space="preserve">-----</t>
+          <t xml:space="preserve">Refer to Broker</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c t="inlineStr" r="A153">
         <is>
-          <t xml:space="preserve">SV00004</t>
+          <t xml:space="preserve">DL00039</t>
         </is>
       </c>
       <c t="inlineStr" r="B153">
         <is>
-          <t xml:space="preserve">Well Established and profitable Franchise Hair Salon (Absentee Run)</t>
+          <t xml:space="preserve">Bulk water stations for Retail and Commercial Outlets for Sale!</t>
         </is>
       </c>
       <c r="C153" s="63">
-        <v>45000</v>
+        <v>280500</v>
       </c>
       <c t="inlineStr" r="D153">
         <is>
-          <t xml:space="preserve">Greater San Francisco Bay Area</t>
+          <t xml:space="preserve">North Texas</t>
         </is>
       </c>
       <c r="E153" s="65">
@@ -7184,42 +7199,42 @@
       </c>
       <c t="inlineStr" r="G153">
         <is>
-          <t xml:space="preserve">Franchises</t>
+          <t xml:space="preserve">Other Services (except public administration)</t>
         </is>
       </c>
       <c t="inlineStr" r="H153">
         <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
+          <t xml:space="preserve">Other Personal Services</t>
         </is>
       </c>
       <c t="inlineStr" r="I153">
         <is>
-          <t xml:space="preserve">Raj Sathyaseelan</t>
+          <t xml:space="preserve">Tom Diedrich</t>
         </is>
       </c>
       <c t="inlineStr" r="M153">
         <is>
-          <t xml:space="preserve">Includes Inventory</t>
+          <t xml:space="preserve">-----</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c t="inlineStr" r="A154">
         <is>
-          <t xml:space="preserve">SV00003</t>
+          <t xml:space="preserve">LA04308</t>
         </is>
       </c>
       <c t="inlineStr" r="B154">
         <is>
-          <t xml:space="preserve">New Franchise Hair Salon (Absentee Run)</t>
+          <t xml:space="preserve">Auto repair and Autobody shop on major corner in Long Beach</t>
         </is>
       </c>
       <c r="C154" s="63">
-        <v>45000</v>
+        <v>300000</v>
       </c>
       <c t="inlineStr" r="D154">
         <is>
-          <t xml:space="preserve">Alameda County</t>
+          <t xml:space="preserve">California</t>
         </is>
       </c>
       <c r="E154" s="65">
@@ -7230,7 +7245,7 @@
       </c>
       <c t="inlineStr" r="G154">
         <is>
-          <t xml:space="preserve">Franchises</t>
+          <t xml:space="preserve">Retail Trade</t>
         </is>
       </c>
       <c t="inlineStr" r="H154">
@@ -7238,784 +7253,7 @@
           <t xml:space="preserve">&lt;none&gt;</t>
         </is>
       </c>
-      <c t="inlineStr" r="I154">
-        <is>
-          <t xml:space="preserve">Raj Sathyaseelan</t>
-        </is>
-      </c>
       <c t="inlineStr" r="M154">
-        <is>
-          <t xml:space="preserve">-----</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c t="inlineStr" r="A155">
-        <is>
-          <t xml:space="preserve">LA04470</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B155">
-        <is>
-          <t xml:space="preserve">Full Service CPA Firm, Shadows of Disneyland</t>
-        </is>
-      </c>
-      <c r="C155" s="63">
-        <v>1250000</v>
-      </c>
-      <c t="inlineStr" r="D155">
-        <is>
-          <t xml:space="preserve">Orange County</t>
-        </is>
-      </c>
-      <c r="E155" s="65">
-        <v>0</v>
-      </c>
-      <c r="F155" s="63">
-        <v>132673</v>
-      </c>
-      <c t="inlineStr" r="G155">
-        <is>
-          <t xml:space="preserve">Professional, Scientific and Technical Services</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H155">
-        <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="M155">
-        <is>
-          <t xml:space="preserve">Seller Financing</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c t="inlineStr" r="A156">
-        <is>
-          <t xml:space="preserve">NYC00038</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B156">
-        <is>
-          <t xml:space="preserve">Need to sell immediate Highly successful Pizza franchise</t>
-        </is>
-      </c>
-      <c r="C156" s="63">
-        <v>175000</v>
-      </c>
-      <c t="inlineStr" r="D156">
-        <is>
-          <t xml:space="preserve">Long Island</t>
-        </is>
-      </c>
-      <c r="E156" s="65">
-        <v>0</v>
-      </c>
-      <c r="F156" s="63">
-        <v>75000</v>
-      </c>
-      <c t="inlineStr" r="G156">
-        <is>
-          <t xml:space="preserve">Restaurant</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H156">
-        <is>
-          <t xml:space="preserve">Food Services and Drinking Places</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I156">
-        <is>
-          <t xml:space="preserve">Kingsley Allison</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="M156">
-        <is>
-          <t xml:space="preserve">-----</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c t="inlineStr" r="A157">
-        <is>
-          <t xml:space="preserve">DL00053</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B157">
-        <is>
-          <t xml:space="preserve">Long Standing Profitable Equipment Rental Business for sale in N. TX!</t>
-        </is>
-      </c>
-      <c r="C157" s="63">
-        <v>995000</v>
-      </c>
-      <c t="inlineStr" r="D157">
-        <is>
-          <t xml:space="preserve">North Texas</t>
-        </is>
-      </c>
-      <c r="E157" s="65">
-        <v>0</v>
-      </c>
-      <c r="F157" s="63">
-        <v>182000</v>
-      </c>
-      <c t="inlineStr" r="G157">
-        <is>
-          <t xml:space="preserve">Other Services (except public administration)</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H157">
-        <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I157">
-        <is>
-          <t xml:space="preserve">Tom Diedrich</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="M157">
-        <is>
-          <t xml:space="preserve">-----</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c t="inlineStr" r="A158">
-        <is>
-          <t xml:space="preserve">DL00052</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B158">
-        <is>
-          <t xml:space="preserve">Profitable On Line E Commerce Business for sale in N. TX!</t>
-        </is>
-      </c>
-      <c r="C158" s="63">
-        <v>325000</v>
-      </c>
-      <c t="inlineStr" r="D158">
-        <is>
-          <t xml:space="preserve">North Texas</t>
-        </is>
-      </c>
-      <c r="E158" s="65">
-        <v>0</v>
-      </c>
-      <c r="F158" s="63">
-        <v>84000</v>
-      </c>
-      <c t="inlineStr" r="G158">
-        <is>
-          <t xml:space="preserve">Retail Trade</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H158">
-        <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I158">
-        <is>
-          <t xml:space="preserve">Tom Diedrich</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="M158">
-        <is>
-          <t xml:space="preserve">-----</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c t="inlineStr" r="A159">
-        <is>
-          <t xml:space="preserve">DL00051</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B159">
-        <is>
-          <t xml:space="preserve">Profitable Machine &amp; Manufacturing Co. For Sale!</t>
-        </is>
-      </c>
-      <c r="C159" s="63">
-        <v>1200000</v>
-      </c>
-      <c t="inlineStr" r="D159">
-        <is>
-          <t xml:space="preserve">North Texas</t>
-        </is>
-      </c>
-      <c r="E159" s="65">
-        <v>0</v>
-      </c>
-      <c r="F159" s="63">
-        <v>242000</v>
-      </c>
-      <c t="inlineStr" r="G159">
-        <is>
-          <t xml:space="preserve">Manufacturing</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H159">
-        <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I159">
-        <is>
-          <t xml:space="preserve">Tom Diedrich</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="M159">
-        <is>
-          <t xml:space="preserve">-----</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c t="inlineStr" r="A160">
-        <is>
-          <t xml:space="preserve">DL00049</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B160">
-        <is>
-          <t xml:space="preserve">Profitable Residential and Commercial Cleaning Company for Sale!</t>
-        </is>
-      </c>
-      <c r="C160" s="63">
-        <v>400000</v>
-      </c>
-      <c t="inlineStr" r="D160">
-        <is>
-          <t xml:space="preserve">North Texas</t>
-        </is>
-      </c>
-      <c r="E160" s="65">
-        <v>0</v>
-      </c>
-      <c r="F160" s="65">
-        <v>0</v>
-      </c>
-      <c t="inlineStr" r="G160">
-        <is>
-          <t xml:space="preserve">Other Services (except public administration)</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H160">
-        <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I160">
-        <is>
-          <t xml:space="preserve">Tom Diedrich</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="M160">
-        <is>
-          <t xml:space="preserve">-----</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c t="inlineStr" r="A161">
-        <is>
-          <t xml:space="preserve">DL00048</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B161">
-        <is>
-          <t xml:space="preserve">Profitable Distribution Company for sale!</t>
-        </is>
-      </c>
-      <c r="C161" s="63">
-        <v>105000</v>
-      </c>
-      <c t="inlineStr" r="D161">
-        <is>
-          <t xml:space="preserve">North Texas</t>
-        </is>
-      </c>
-      <c r="E161" s="65">
-        <v>0</v>
-      </c>
-      <c r="F161" s="63">
-        <v>50000</v>
-      </c>
-      <c t="inlineStr" r="G161">
-        <is>
-          <t xml:space="preserve">Transportation &amp; Warehousing</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H161">
-        <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I161">
-        <is>
-          <t xml:space="preserve">Tom Diedrich</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="M161">
-        <is>
-          <t xml:space="preserve">-----</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c t="inlineStr" r="A162">
-        <is>
-          <t xml:space="preserve">NYC00028</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B162">
-        <is>
-          <t xml:space="preserve">Five Star Beautiful And Well Equipped Laundromat For Sale</t>
-        </is>
-      </c>
-      <c r="C162" s="63">
-        <v>1810000</v>
-      </c>
-      <c t="inlineStr" r="D162">
-        <is>
-          <t xml:space="preserve">Brooklyn</t>
-        </is>
-      </c>
-      <c r="E162" s="65">
-        <v>0</v>
-      </c>
-      <c r="F162" s="63">
-        <v>361094</v>
-      </c>
-      <c t="inlineStr" r="G162">
-        <is>
-          <t xml:space="preserve">Other Services (except public administration)</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H162">
-        <is>
-          <t xml:space="preserve">Drycleaning and Laundry Services</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I162">
-        <is>
-          <t xml:space="preserve">Kingsley Allison</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="M162">
-        <is>
-          <t xml:space="preserve">-----</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c t="inlineStr" r="A163">
-        <is>
-          <t xml:space="preserve">NYC00026</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B163">
-        <is>
-          <t xml:space="preserve">Highly successful Limousine business</t>
-        </is>
-      </c>
-      <c r="C163" s="63">
-        <v>150000</v>
-      </c>
-      <c t="inlineStr" r="D163">
-        <is>
-          <t xml:space="preserve">Brooklyn</t>
-        </is>
-      </c>
-      <c r="E163" s="65">
-        <v>0</v>
-      </c>
-      <c r="F163" s="63">
-        <v>90000</v>
-      </c>
-      <c t="inlineStr" r="G163">
-        <is>
-          <t xml:space="preserve">Transportation &amp; Warehousing</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H163">
-        <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I163">
-        <is>
-          <t xml:space="preserve">Kingsley Allison</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="M163">
-        <is>
-          <t xml:space="preserve">-----</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c t="inlineStr" r="A164">
-        <is>
-          <t xml:space="preserve">NYC00024</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B164">
-        <is>
-          <t xml:space="preserve">Completely Updated Motel in Orange county, NY for sale including property</t>
-        </is>
-      </c>
-      <c r="C164" s="63">
-        <v>2000000</v>
-      </c>
-      <c t="inlineStr" r="D164">
-        <is>
-          <t xml:space="preserve">Orange County</t>
-        </is>
-      </c>
-      <c r="E164" s="65">
-        <v>0</v>
-      </c>
-      <c r="F164" s="65">
-        <v>0</v>
-      </c>
-      <c t="inlineStr" r="G164">
-        <is>
-          <t xml:space="preserve">Real Estate and Rental &amp; Leasing</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H164">
-        <is>
-          <t xml:space="preserve">Real Estate</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I164">
-        <is>
-          <t xml:space="preserve">Kingsley Allison</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="M164">
-        <is>
-          <t xml:space="preserve">Real estate included</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c t="inlineStr" r="A165">
-        <is>
-          <t xml:space="preserve">DL00042</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B165">
-        <is>
-          <t xml:space="preserve">Unique Opportunity to Own Two Flooring Companies in North Texas</t>
-        </is>
-      </c>
-      <c r="C165" s="63">
-        <v>330000</v>
-      </c>
-      <c t="inlineStr" r="D165">
-        <is>
-          <t xml:space="preserve">North Texas</t>
-        </is>
-      </c>
-      <c r="E165" s="65">
-        <v>0</v>
-      </c>
-      <c r="F165" s="63">
-        <v>173000</v>
-      </c>
-      <c t="inlineStr" r="G165">
-        <is>
-          <t xml:space="preserve">Construction</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H165">
-        <is>
-          <t xml:space="preserve">Specialty Trade Contractors</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I165">
-        <is>
-          <t xml:space="preserve">Tom Diedrich</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="M165">
-        <is>
-          <t xml:space="preserve">-----</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c t="inlineStr" r="A166">
-        <is>
-          <t xml:space="preserve">NYC00018</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B166">
-        <is>
-          <t xml:space="preserve">Highly successful Laundromat in  Yonkers</t>
-        </is>
-      </c>
-      <c r="C166" s="63">
-        <v>399000</v>
-      </c>
-      <c t="inlineStr" r="D166">
-        <is>
-          <t xml:space="preserve">Westchester County</t>
-        </is>
-      </c>
-      <c r="E166" s="65">
-        <v>0</v>
-      </c>
-      <c r="F166" s="63">
-        <v>100000</v>
-      </c>
-      <c t="inlineStr" r="G166">
-        <is>
-          <t xml:space="preserve">Other Services (except public administration)</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H166">
-        <is>
-          <t xml:space="preserve">Drycleaning and Laundry Services</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I166">
-        <is>
-          <t xml:space="preserve">Kingsley Allison</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="M166">
-        <is>
-          <t xml:space="preserve">-----</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c t="inlineStr" r="A167">
-        <is>
-          <t xml:space="preserve">DL00041</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B167">
-        <is>
-          <t xml:space="preserve">Profitable Executive Suite Business for Sale in North Texas!</t>
-        </is>
-      </c>
-      <c r="C167" s="63">
-        <v>100000</v>
-      </c>
-      <c t="inlineStr" r="D167">
-        <is>
-          <t xml:space="preserve">North Texas</t>
-        </is>
-      </c>
-      <c r="E167" s="65">
-        <v>0</v>
-      </c>
-      <c r="F167" s="65">
-        <v>0</v>
-      </c>
-      <c t="inlineStr" r="G167">
-        <is>
-          <t xml:space="preserve">Other Services (except public administration)</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H167">
-        <is>
-          <t xml:space="preserve">Rental and Leasing Services</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I167">
-        <is>
-          <t xml:space="preserve">Tom Diedrich</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="M167">
-        <is>
-          <t xml:space="preserve">-----</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c t="inlineStr" r="A168">
-        <is>
-          <t xml:space="preserve">NYC00016</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B168">
-        <is>
-          <t xml:space="preserve">Highly successful &amp; growing Landscaping and Maintenance business</t>
-        </is>
-      </c>
-      <c r="C168" s="65">
-        <v>0</v>
-      </c>
-      <c t="inlineStr" r="D168">
-        <is>
-          <t xml:space="preserve">Westchester County</t>
-        </is>
-      </c>
-      <c r="E168" s="65">
-        <v>0</v>
-      </c>
-      <c r="F168" s="65">
-        <v>0</v>
-      </c>
-      <c t="inlineStr" r="G168">
-        <is>
-          <t xml:space="preserve">Other Services (except public administration)</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H168">
-        <is>
-          <t xml:space="preserve">Repair and Maintenance</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I168">
-        <is>
-          <t xml:space="preserve">Kingsley Allison</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="M168">
-        <is>
-          <t xml:space="preserve">Refer to Broker</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c t="inlineStr" r="A169">
-        <is>
-          <t xml:space="preserve">DL00040</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B169">
-        <is>
-          <t xml:space="preserve">Profitable Outdoor Kitchen &amp; Hardscapes Co. For Sale in N. TX.</t>
-        </is>
-      </c>
-      <c r="C169" s="63">
-        <v>475000</v>
-      </c>
-      <c t="inlineStr" r="D169">
-        <is>
-          <t xml:space="preserve">North Texas</t>
-        </is>
-      </c>
-      <c r="E169" s="65">
-        <v>0</v>
-      </c>
-      <c r="F169" s="65">
-        <v>0</v>
-      </c>
-      <c t="inlineStr" r="G169">
-        <is>
-          <t xml:space="preserve">Construction</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H169">
-        <is>
-          <t xml:space="preserve">Addition, alteration and renovation (i.e., construction), residential building</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I169">
-        <is>
-          <t xml:space="preserve">Tom Diedrich</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="M169">
-        <is>
-          <t xml:space="preserve">-----</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c t="inlineStr" r="A170">
-        <is>
-          <t xml:space="preserve">DL00039</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B170">
-        <is>
-          <t xml:space="preserve">Bulk water stations for Retail and Commercial Outlets for Sale!</t>
-        </is>
-      </c>
-      <c r="C170" s="63">
-        <v>280500</v>
-      </c>
-      <c t="inlineStr" r="D170">
-        <is>
-          <t xml:space="preserve">North Texas</t>
-        </is>
-      </c>
-      <c r="E170" s="65">
-        <v>0</v>
-      </c>
-      <c r="F170" s="65">
-        <v>0</v>
-      </c>
-      <c t="inlineStr" r="G170">
-        <is>
-          <t xml:space="preserve">Other Services (except public administration)</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H170">
-        <is>
-          <t xml:space="preserve">Other Personal Services</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I170">
-        <is>
-          <t xml:space="preserve">Tom Diedrich</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="M170">
-        <is>
-          <t xml:space="preserve">-----</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c t="inlineStr" r="A171">
-        <is>
-          <t xml:space="preserve">LA04308</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B171">
-        <is>
-          <t xml:space="preserve">Auto repair and Autobody shop on major corner in Long Beach</t>
-        </is>
-      </c>
-      <c r="C171" s="63">
-        <v>300000</v>
-      </c>
-      <c t="inlineStr" r="D171">
-        <is>
-          <t xml:space="preserve">California</t>
-        </is>
-      </c>
-      <c r="E171" s="65">
-        <v>0</v>
-      </c>
-      <c r="F171" s="65">
-        <v>0</v>
-      </c>
-      <c t="inlineStr" r="G171">
-        <is>
-          <t xml:space="preserve">Retail Trade</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H171">
-        <is>
-          <t xml:space="preserve">&lt;none&gt;</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="M171">
         <is>
           <t xml:space="preserve">-----</t>
         </is>
